--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1909170.333381202</v>
+        <v>1908440.692194048</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688989.561178703</v>
+        <v>2688989.561178702</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736557</v>
       </c>
     </row>
     <row r="9">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="E8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.94294668035388</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,65 +1209,65 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,14 +1288,14 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>11.94294668035388</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>275.0454855405204</v>
       </c>
       <c r="D11" t="n">
-        <v>266.0267895850483</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>287.7689271549539</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.65034103896976</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.8108641380758</v>
       </c>
       <c r="U11" t="n">
-        <v>62.59821061550926</v>
+        <v>149.2266919701798</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>255.8406453009746</v>
       </c>
       <c r="X11" t="n">
-        <v>275.1409035337213</v>
+        <v>267.0780065870534</v>
       </c>
       <c r="Y11" t="n">
         <v>286.53750132992</v>
@@ -1467,7 +1467,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I12" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S12" t="n">
         <v>146.1960923372973</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.65087945753569</v>
+        <v>78.65087945753571</v>
       </c>
       <c r="C13" t="n">
-        <v>64.85087430293618</v>
+        <v>64.85087430293619</v>
       </c>
       <c r="D13" t="n">
-        <v>48.47223870051457</v>
+        <v>48.47223870051458</v>
       </c>
       <c r="E13" t="n">
-        <v>47.41998855629402</v>
+        <v>47.41998855629403</v>
       </c>
       <c r="F13" t="n">
-        <v>47.88691288448032</v>
+        <v>47.88691288448034</v>
       </c>
       <c r="G13" t="n">
-        <v>63.93253645884518</v>
+        <v>63.93253645884521</v>
       </c>
       <c r="H13" t="n">
         <v>52.67326135806992</v>
       </c>
       <c r="I13" t="n">
-        <v>32.80304370225982</v>
+        <v>32.80304370225984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>34.65739656833061</v>
       </c>
       <c r="S13" t="n">
-        <v>104.5115046597456</v>
+        <v>104.5115046597457</v>
       </c>
       <c r="T13" t="n">
         <v>126.7994353935504</v>
@@ -1594,7 +1594,7 @@
         <v>125.8710039235777</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.7458716796453</v>
+        <v>116.7458716796454</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>275.0454855405204</v>
       </c>
       <c r="D14" t="n">
-        <v>266.0267895850483</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>119.8265919474479</v>
+        <v>49.1654843852681</v>
       </c>
       <c r="F14" t="n">
         <v>306.940743242931</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.65034103896973</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>116.8108641380758</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.2266919701797</v>
       </c>
       <c r="V14" t="n">
         <v>230.5405458230177</v>
@@ -1704,7 +1704,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I15" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S15" t="n">
         <v>146.1960923372973</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.6573965683306</v>
+        <v>34.65739656833059</v>
       </c>
       <c r="S16" t="n">
         <v>104.5115046597456</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.1895809222711</v>
+        <v>235.189580922271</v>
       </c>
       <c r="C17" t="n">
         <v>223.2008978799528</v>
@@ -1859,7 +1859,7 @@
         <v>256.5187308177134</v>
       </c>
       <c r="H17" t="n">
-        <v>169.3494072326458</v>
+        <v>169.3494072326448</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.80575337840223</v>
+        <v>18.80575337840216</v>
       </c>
       <c r="T17" t="n">
-        <v>64.96627647750826</v>
+        <v>64.96627647750819</v>
       </c>
       <c r="U17" t="n">
-        <v>97.38210430961223</v>
+        <v>97.38210430961217</v>
       </c>
       <c r="V17" t="n">
         <v>178.6959581624502</v>
@@ -1910,7 +1910,7 @@
         <v>223.2963158731537</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.6929136693525</v>
+        <v>234.6929136693524</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I18" t="n">
-        <v>58.29069663069905</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.22128824978127</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S18" t="n">
         <v>146.1960923372973</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.80629179696817</v>
+        <v>26.80629179696811</v>
       </c>
       <c r="C19" t="n">
-        <v>13.00628664236865</v>
+        <v>13.00628664236859</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.46718075682312</v>
+        <v>12.0879487982776</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8286736975023952</v>
+        <v>0.8286736975023357</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>18.9697131795732</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>15.40951877897302</v>
       </c>
       <c r="S19" t="n">
-        <v>52.66691699917811</v>
+        <v>52.66691699917804</v>
       </c>
       <c r="T19" t="n">
-        <v>74.95484773298283</v>
+        <v>74.95484773298277</v>
       </c>
       <c r="U19" t="n">
-        <v>129.3923186890242</v>
+        <v>129.3923186890241</v>
       </c>
       <c r="V19" t="n">
-        <v>103.2144281965938</v>
+        <v>103.2144281965937</v>
       </c>
       <c r="W19" t="n">
         <v>128.381314267207</v>
       </c>
       <c r="X19" t="n">
-        <v>74.02641626301013</v>
+        <v>74.02641626301008</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.90128401907782</v>
+        <v>64.90128401907776</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>235.9243394943863</v>
       </c>
       <c r="F20" t="n">
-        <v>255.0961555823635</v>
+        <v>255.0961555823623</v>
       </c>
       <c r="G20" t="n">
         <v>256.5187308177134</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.80575337840223</v>
+        <v>18.80575337840222</v>
       </c>
       <c r="T20" t="n">
-        <v>64.96627647750826</v>
+        <v>64.96627647750825</v>
       </c>
       <c r="U20" t="n">
         <v>97.38210430961223</v>
@@ -2178,7 +2178,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I21" t="n">
-        <v>58.29069663069905</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.22128824978127</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S21" t="n">
         <v>146.1960923372973</v>
@@ -2242,7 +2242,7 @@
         <v>13.00628664236865</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15.40951877897244</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>12.08794879827766</v>
       </c>
       <c r="H22" t="n">
-        <v>35.20790565604786</v>
+        <v>0.8286736975023925</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>18.9697131795732</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.66691699917811</v>
+        <v>52.6669169991781</v>
       </c>
       <c r="T22" t="n">
         <v>74.95484773298283</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.80575337840223</v>
+        <v>18.80575337840222</v>
       </c>
       <c r="T23" t="n">
-        <v>64.96627647750826</v>
+        <v>64.96627647750825</v>
       </c>
       <c r="U23" t="n">
         <v>97.38210430961223</v>
@@ -2415,7 +2415,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I24" t="n">
-        <v>58.29069663069905</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.22128824978127</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S24" t="n">
         <v>146.1960923372973</v>
@@ -2491,7 +2491,7 @@
         <v>12.08794879827766</v>
       </c>
       <c r="H25" t="n">
-        <v>35.20790565604787</v>
+        <v>0.8286736975023925</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>34.37923195854562</v>
       </c>
       <c r="S25" t="n">
-        <v>52.66691699917811</v>
+        <v>52.6669169991781</v>
       </c>
       <c r="T25" t="n">
         <v>74.95484773298283</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.0341685828386</v>
+        <v>287.0341685828387</v>
       </c>
       <c r="C26" t="n">
         <v>275.0454855405204</v>
       </c>
       <c r="D26" t="n">
-        <v>266.0267895850483</v>
+        <v>266.0267895850484</v>
       </c>
       <c r="E26" t="n">
         <v>287.7689271549539</v>
@@ -2570,10 +2570,10 @@
         <v>308.363318478281</v>
       </c>
       <c r="H26" t="n">
-        <v>221.1939948932124</v>
+        <v>221.193994893213</v>
       </c>
       <c r="I26" t="n">
-        <v>48.33161240873751</v>
+        <v>48.33161240873753</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>149.2266919701798</v>
       </c>
       <c r="V26" t="n">
-        <v>230.5405458230177</v>
+        <v>230.5405458230178</v>
       </c>
       <c r="W26" t="n">
-        <v>255.8406453009746</v>
+        <v>255.8406453009747</v>
       </c>
       <c r="X26" t="n">
         <v>275.1409035337213</v>
@@ -2652,7 +2652,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I27" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S27" t="n">
         <v>146.1960923372973</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.65087945753571</v>
+        <v>78.65087945753572</v>
       </c>
       <c r="C28" t="n">
-        <v>64.85087430293619</v>
+        <v>64.85087430293621</v>
       </c>
       <c r="D28" t="n">
-        <v>48.47223870051458</v>
+        <v>48.47223870051459</v>
       </c>
       <c r="E28" t="n">
-        <v>47.41998855629403</v>
+        <v>47.41998855629404</v>
       </c>
       <c r="F28" t="n">
-        <v>47.88691288448034</v>
+        <v>47.88691288448035</v>
       </c>
       <c r="G28" t="n">
         <v>63.93253645884521</v>
       </c>
       <c r="H28" t="n">
-        <v>52.67326135806994</v>
+        <v>52.67326135806995</v>
       </c>
       <c r="I28" t="n">
-        <v>32.80304370225984</v>
+        <v>32.80304370225985</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>34.65739656833063</v>
       </c>
       <c r="S28" t="n">
-        <v>104.5115046597456</v>
+        <v>104.5115046597457</v>
       </c>
       <c r="T28" t="n">
         <v>126.7994353935504</v>
@@ -2773,7 +2773,7 @@
         <v>155.0590158571613</v>
       </c>
       <c r="W28" t="n">
-        <v>180.2259019277745</v>
+        <v>180.2259019277746</v>
       </c>
       <c r="X28" t="n">
         <v>125.8710039235777</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.0341685828386</v>
+        <v>287.0341685828387</v>
       </c>
       <c r="C29" t="n">
-        <v>275.0454855405204</v>
+        <v>275.0454855405205</v>
       </c>
       <c r="D29" t="n">
-        <v>266.0267895850483</v>
+        <v>266.0267895850484</v>
       </c>
       <c r="E29" t="n">
-        <v>287.7689271549539</v>
+        <v>287.768927154954</v>
       </c>
       <c r="F29" t="n">
-        <v>306.940743242931</v>
+        <v>306.9407432429311</v>
       </c>
       <c r="G29" t="n">
-        <v>308.363318478281</v>
+        <v>308.3633184782811</v>
       </c>
       <c r="H29" t="n">
-        <v>221.1939948932124</v>
+        <v>221.1939948932125</v>
       </c>
       <c r="I29" t="n">
-        <v>48.3316124087375</v>
+        <v>48.3316124087376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.65034103896976</v>
+        <v>70.65034103896984</v>
       </c>
       <c r="T29" t="n">
-        <v>116.8108641380758</v>
+        <v>116.8108641380759</v>
       </c>
       <c r="U29" t="n">
-        <v>149.226691970182</v>
+        <v>149.2266919701798</v>
       </c>
       <c r="V29" t="n">
-        <v>230.5405458230177</v>
+        <v>230.5405458230179</v>
       </c>
       <c r="W29" t="n">
-        <v>255.8406453009746</v>
+        <v>255.8406453009748</v>
       </c>
       <c r="X29" t="n">
-        <v>275.1409035337213</v>
+        <v>275.1409035337214</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.53750132992</v>
+        <v>286.5375013299201</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I30" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S30" t="n">
         <v>146.1960923372973</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.65087945753569</v>
+        <v>78.65087945753579</v>
       </c>
       <c r="C31" t="n">
-        <v>64.85087430293618</v>
+        <v>64.85087430293628</v>
       </c>
       <c r="D31" t="n">
-        <v>48.47223870051457</v>
+        <v>48.47223870051467</v>
       </c>
       <c r="E31" t="n">
-        <v>47.41998855629402</v>
+        <v>47.41998855629411</v>
       </c>
       <c r="F31" t="n">
-        <v>47.88691288448032</v>
+        <v>47.88691288448042</v>
       </c>
       <c r="G31" t="n">
-        <v>63.93253645884519</v>
+        <v>63.93253645884528</v>
       </c>
       <c r="H31" t="n">
-        <v>52.67326135806992</v>
+        <v>52.67326135807002</v>
       </c>
       <c r="I31" t="n">
-        <v>32.80304370225982</v>
+        <v>32.80304370225992</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65739656833061</v>
+        <v>34.6573965683307</v>
       </c>
       <c r="S31" t="n">
-        <v>104.5115046597456</v>
+        <v>104.5115046597457</v>
       </c>
       <c r="T31" t="n">
-        <v>126.7994353935504</v>
+        <v>126.7994353935505</v>
       </c>
       <c r="U31" t="n">
-        <v>181.2369063495917</v>
+        <v>181.2369063495918</v>
       </c>
       <c r="V31" t="n">
-        <v>155.0590158571613</v>
+        <v>155.0590158571614</v>
       </c>
       <c r="W31" t="n">
-        <v>180.2259019277745</v>
+        <v>180.2259019277747</v>
       </c>
       <c r="X31" t="n">
-        <v>125.8710039235777</v>
+        <v>125.8710039235778</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.7458716796453</v>
+        <v>116.7458716796454</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.9442894176975</v>
+        <v>283.9442894176976</v>
       </c>
       <c r="C32" t="n">
         <v>271.9556063753793</v>
       </c>
       <c r="D32" t="n">
-        <v>262.9369104199072</v>
+        <v>262.9369104199073</v>
       </c>
       <c r="E32" t="n">
         <v>284.6790479898128</v>
       </c>
       <c r="F32" t="n">
-        <v>303.8508640777899</v>
+        <v>303.85086407779</v>
       </c>
       <c r="G32" t="n">
         <v>305.2734393131399</v>
@@ -3047,7 +3047,7 @@
         <v>218.1041157280713</v>
       </c>
       <c r="I32" t="n">
-        <v>45.24173324359641</v>
+        <v>45.24173324359644</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.56046187382866</v>
+        <v>67.56046187382869</v>
       </c>
       <c r="T32" t="n">
         <v>113.7209849729347</v>
@@ -3086,16 +3086,16 @@
         <v>146.1368128050387</v>
       </c>
       <c r="V32" t="n">
-        <v>227.4506666578766</v>
+        <v>227.4506666578767</v>
       </c>
       <c r="W32" t="n">
-        <v>252.7507661358335</v>
+        <v>252.7507661358336</v>
       </c>
       <c r="X32" t="n">
         <v>272.0510243685802</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.4476221647789</v>
+        <v>283.447622164779</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I33" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S33" t="n">
         <v>146.1960923372973</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.56100029239461</v>
+        <v>75.56100029239464</v>
       </c>
       <c r="C34" t="n">
-        <v>61.76099513779509</v>
+        <v>61.76099513779512</v>
       </c>
       <c r="D34" t="n">
-        <v>45.38235953537348</v>
+        <v>45.38235953537351</v>
       </c>
       <c r="E34" t="n">
-        <v>44.33010939115293</v>
+        <v>44.33010939115296</v>
       </c>
       <c r="F34" t="n">
-        <v>44.79703371933924</v>
+        <v>44.79703371933927</v>
       </c>
       <c r="G34" t="n">
-        <v>60.8426572937041</v>
+        <v>60.84265729370413</v>
       </c>
       <c r="H34" t="n">
-        <v>49.58338219292884</v>
+        <v>49.58338219292887</v>
       </c>
       <c r="I34" t="n">
-        <v>29.71316453711874</v>
+        <v>29.71316453711876</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.56751740318953</v>
+        <v>31.56751740318955</v>
       </c>
       <c r="S34" t="n">
-        <v>101.4216254946045</v>
+        <v>101.4216254946046</v>
       </c>
       <c r="T34" t="n">
         <v>123.7095562284093</v>
       </c>
       <c r="U34" t="n">
-        <v>178.1470271844506</v>
+        <v>178.1470271844507</v>
       </c>
       <c r="V34" t="n">
         <v>151.9691366920202</v>
       </c>
       <c r="W34" t="n">
-        <v>177.1360227626334</v>
+        <v>177.1360227626335</v>
       </c>
       <c r="X34" t="n">
         <v>122.7811247584366</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.1895809222712</v>
+        <v>235.1895809222711</v>
       </c>
       <c r="C35" t="n">
-        <v>223.2008978799529</v>
+        <v>223.2008978799528</v>
       </c>
       <c r="D35" t="n">
-        <v>214.1822019244809</v>
+        <v>214.1822019244808</v>
       </c>
       <c r="E35" t="n">
-        <v>235.9243394943865</v>
+        <v>235.9243394943863</v>
       </c>
       <c r="F35" t="n">
-        <v>255.0961555823636</v>
+        <v>255.0961555823635</v>
       </c>
       <c r="G35" t="n">
-        <v>256.5187308177136</v>
+        <v>256.5187308177134</v>
       </c>
       <c r="H35" t="n">
-        <v>169.349407232645</v>
+        <v>169.3494072326449</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.80575337840233</v>
+        <v>18.80575337840222</v>
       </c>
       <c r="T35" t="n">
-        <v>64.96627647750836</v>
+        <v>64.96627647750825</v>
       </c>
       <c r="U35" t="n">
-        <v>97.38210430961234</v>
+        <v>97.38210430961223</v>
       </c>
       <c r="V35" t="n">
-        <v>178.6959581624503</v>
+        <v>178.6959581624502</v>
       </c>
       <c r="W35" t="n">
-        <v>203.9960576404072</v>
+        <v>203.9960576404071</v>
       </c>
       <c r="X35" t="n">
-        <v>223.2963158731538</v>
+        <v>223.2963158731537</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.6929136693526</v>
+        <v>234.6929136693525</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I36" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S36" t="n">
         <v>146.1960923372973</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.80629179696828</v>
+        <v>26.80629179696817</v>
       </c>
       <c r="C37" t="n">
-        <v>13.00628664236876</v>
+        <v>13.00628664236865</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.08794879827777</v>
+        <v>12.08794879827766</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8286736975025075</v>
+        <v>0.8286736975023925</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.37923195854427</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.66691699917822</v>
+        <v>52.6669169991781</v>
       </c>
       <c r="T37" t="n">
-        <v>74.95484773298294</v>
+        <v>74.95484773298283</v>
       </c>
       <c r="U37" t="n">
-        <v>129.3923186890243</v>
+        <v>129.3923186890242</v>
       </c>
       <c r="V37" t="n">
-        <v>103.2144281965939</v>
+        <v>103.2144281965938</v>
       </c>
       <c r="W37" t="n">
-        <v>128.3813142672071</v>
+        <v>128.381314267207</v>
       </c>
       <c r="X37" t="n">
-        <v>74.02641626301025</v>
+        <v>108.4056482215557</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.90128401907793</v>
+        <v>64.90128401907782</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>235.189580922271</v>
       </c>
       <c r="C38" t="n">
-        <v>223.2008978799528</v>
+        <v>223.2008978799527</v>
       </c>
       <c r="D38" t="n">
-        <v>214.1822019244808</v>
+        <v>214.1822019244807</v>
       </c>
       <c r="E38" t="n">
         <v>235.9243394943863</v>
       </c>
       <c r="F38" t="n">
-        <v>255.0961555823635</v>
+        <v>255.0961555823634</v>
       </c>
       <c r="G38" t="n">
         <v>256.5187308177134</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.80575337840216</v>
+        <v>18.80575337840213</v>
       </c>
       <c r="T38" t="n">
-        <v>64.96627647750819</v>
+        <v>64.96627647750816</v>
       </c>
       <c r="U38" t="n">
-        <v>97.38210430961217</v>
+        <v>97.38210430961215</v>
       </c>
       <c r="V38" t="n">
-        <v>178.6959581624502</v>
+        <v>178.6959581624501</v>
       </c>
       <c r="W38" t="n">
-        <v>203.9960576404071</v>
+        <v>203.996057640407</v>
       </c>
       <c r="X38" t="n">
-        <v>223.2963158731537</v>
+        <v>223.2963158731536</v>
       </c>
       <c r="Y38" t="n">
         <v>234.6929136693524</v>
@@ -3600,7 +3600,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I39" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S39" t="n">
         <v>146.1960923372973</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.80629179696811</v>
+        <v>26.80629179696808</v>
       </c>
       <c r="C40" t="n">
-        <v>13.00628664236859</v>
+        <v>13.00628664236856</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.0879487982776</v>
+        <v>12.08794879827757</v>
       </c>
       <c r="H40" t="n">
-        <v>0.828673697502337</v>
+        <v>0.8286736975023072</v>
       </c>
       <c r="I40" t="n">
-        <v>34.37923195854619</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.66691699917805</v>
+        <v>52.66691699917801</v>
       </c>
       <c r="T40" t="n">
-        <v>74.95484773298277</v>
+        <v>109.3340796915293</v>
       </c>
       <c r="U40" t="n">
         <v>129.3923186890241</v>
@@ -3721,13 +3721,13 @@
         <v>103.2144281965937</v>
       </c>
       <c r="W40" t="n">
-        <v>128.381314267207</v>
+        <v>128.3813142672069</v>
       </c>
       <c r="X40" t="n">
-        <v>74.02641626301008</v>
+        <v>74.02641626301005</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.90128401907776</v>
+        <v>64.90128401907774</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.9046603705352</v>
+        <v>266.9046603705351</v>
       </c>
       <c r="C41" t="n">
-        <v>254.9159773282169</v>
+        <v>62.49018456009534</v>
       </c>
       <c r="D41" t="n">
-        <v>245.8972813727449</v>
+        <v>245.8972813727448</v>
       </c>
       <c r="E41" t="n">
         <v>267.6394189426504</v>
       </c>
       <c r="F41" t="n">
-        <v>286.8112350306276</v>
+        <v>286.8112350306275</v>
       </c>
       <c r="G41" t="n">
         <v>288.2338102659775</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>96.68135592577227</v>
       </c>
       <c r="U41" t="n">
-        <v>33.35274691552584</v>
+        <v>129.0971837578763</v>
       </c>
       <c r="V41" t="n">
-        <v>210.4110376107143</v>
+        <v>210.4110376107142</v>
       </c>
       <c r="W41" t="n">
-        <v>235.7111370886712</v>
+        <v>235.7111370886711</v>
       </c>
       <c r="X41" t="n">
         <v>255.0113953214178</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.4079931176166</v>
+        <v>266.4079931176165</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I42" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S42" t="n">
         <v>146.1960923372973</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.52137124523223</v>
+        <v>58.52137124523219</v>
       </c>
       <c r="C43" t="n">
-        <v>44.72136609063271</v>
+        <v>44.72136609063267</v>
       </c>
       <c r="D43" t="n">
-        <v>28.3427304882111</v>
+        <v>28.34273048821106</v>
       </c>
       <c r="E43" t="n">
-        <v>27.29048034399055</v>
+        <v>27.29048034399051</v>
       </c>
       <c r="F43" t="n">
-        <v>27.75740467217686</v>
+        <v>27.75740467217682</v>
       </c>
       <c r="G43" t="n">
-        <v>43.80302824654172</v>
+        <v>43.80302824654168</v>
       </c>
       <c r="H43" t="n">
-        <v>32.54375314576646</v>
+        <v>32.54375314576642</v>
       </c>
       <c r="I43" t="n">
-        <v>12.67353548995636</v>
+        <v>12.67353548995631</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>14.52788835602715</v>
+        <v>14.5278883560271</v>
       </c>
       <c r="S43" t="n">
-        <v>84.38199644744216</v>
+        <v>84.38199644744212</v>
       </c>
       <c r="T43" t="n">
-        <v>106.6699271812469</v>
+        <v>106.6699271812468</v>
       </c>
       <c r="U43" t="n">
-        <v>161.1073981372883</v>
+        <v>161.1073981372882</v>
       </c>
       <c r="V43" t="n">
         <v>134.9295076448578</v>
       </c>
       <c r="W43" t="n">
-        <v>160.0963937154711</v>
+        <v>160.096393715471</v>
       </c>
       <c r="X43" t="n">
         <v>105.7414957112742</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.61636346734188</v>
+        <v>96.61636346734184</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.9046603705352</v>
+        <v>266.9046603705351</v>
       </c>
       <c r="C44" t="n">
         <v>254.9159773282169</v>
       </c>
       <c r="D44" t="n">
-        <v>88.11813901238426</v>
+        <v>2.950655777957197</v>
       </c>
       <c r="E44" t="n">
         <v>267.6394189426504</v>
       </c>
       <c r="F44" t="n">
-        <v>286.8112350306276</v>
+        <v>286.8112350306275</v>
       </c>
       <c r="G44" t="n">
         <v>288.2338102659775</v>
       </c>
       <c r="H44" t="n">
-        <v>201.064486680909</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.52083282666624</v>
       </c>
       <c r="T44" t="n">
-        <v>96.68135592577237</v>
+        <v>96.68135592577227</v>
       </c>
       <c r="U44" t="n">
         <v>129.0971837578763</v>
       </c>
       <c r="V44" t="n">
-        <v>210.4110376107143</v>
+        <v>210.4110376107142</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>235.7111370886711</v>
       </c>
       <c r="X44" t="n">
         <v>255.0113953214178</v>
       </c>
       <c r="Y44" t="n">
-        <v>266.4079931176166</v>
+        <v>266.4079931176165</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.29951068142351</v>
       </c>
       <c r="I45" t="n">
-        <v>58.29069663069904</v>
+        <v>58.29069663069903</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.22128824978125</v>
+        <v>42.22128824978124</v>
       </c>
       <c r="S45" t="n">
         <v>146.1960923372973</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.52137124523227</v>
+        <v>58.52137124523219</v>
       </c>
       <c r="C46" t="n">
-        <v>44.72136609063276</v>
+        <v>44.72136609063267</v>
       </c>
       <c r="D46" t="n">
-        <v>28.34273048821115</v>
+        <v>28.34273048821106</v>
       </c>
       <c r="E46" t="n">
-        <v>27.29048034399059</v>
+        <v>27.29048034399051</v>
       </c>
       <c r="F46" t="n">
-        <v>27.7574046721769</v>
+        <v>27.75740467217682</v>
       </c>
       <c r="G46" t="n">
-        <v>43.80302824654176</v>
+        <v>43.80302824654168</v>
       </c>
       <c r="H46" t="n">
-        <v>32.5437531457665</v>
+        <v>32.54375314576642</v>
       </c>
       <c r="I46" t="n">
-        <v>12.6735354899564</v>
+        <v>12.67353548995631</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.52788835602719</v>
+        <v>14.5278883560271</v>
       </c>
       <c r="S46" t="n">
-        <v>84.38199644744221</v>
+        <v>84.38199644744212</v>
       </c>
       <c r="T46" t="n">
-        <v>106.6699271812469</v>
+        <v>106.6699271812468</v>
       </c>
       <c r="U46" t="n">
-        <v>161.1073981372883</v>
+        <v>161.1073981372882</v>
       </c>
       <c r="V46" t="n">
-        <v>134.9295076448579</v>
+        <v>134.9295076448578</v>
       </c>
       <c r="W46" t="n">
-        <v>160.0963937154711</v>
+        <v>160.096393715471</v>
       </c>
       <c r="X46" t="n">
         <v>105.7414957112742</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.61636346734193</v>
+        <v>96.61636346734184</v>
       </c>
     </row>
   </sheetData>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E8" t="n">
-        <v>25.08260074524424</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4802,25 +4802,25 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N8" t="n">
-        <v>12.3012350807645</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O8" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P8" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
@@ -4835,19 +4835,19 @@
         <v>47.77178672141554</v>
       </c>
       <c r="U8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V8" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W8" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X8" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C9" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D9" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E9" t="n">
         <v>13.01901823983628</v>
@@ -4875,31 +4875,31 @@
         <v>13.01901823983628</v>
       </c>
       <c r="H9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I9" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
-        <v>24.60247016152901</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L9" t="n">
-        <v>36.42598737507935</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M9" t="n">
-        <v>47.77178672141554</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N9" t="n">
-        <v>47.77178672141554</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O9" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
@@ -4908,25 +4908,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T9" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U9" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V9" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W9" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X9" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="D10" t="n">
         <v>0.9554357344283108</v>
@@ -4966,13 +4966,13 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L10" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="M10" t="n">
         <v>24.60247016152901</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>36.42598737507935</v>
-      </c>
-      <c r="N10" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="O10" t="n">
         <v>47.77178672141554</v>
@@ -4984,25 +4984,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="U10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="V10" t="n">
         <v>23.64462171059961</v>
       </c>
-      <c r="V10" t="n">
-        <v>11.58103920519164</v>
-      </c>
       <c r="W10" t="n">
-        <v>11.58103920519164</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X10" t="n">
-        <v>11.58103920519164</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y10" t="n">
         <v>11.58103920519164</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1512.562659852602</v>
+        <v>1243.848730978815</v>
       </c>
       <c r="C11" t="n">
-        <v>1234.7389370844</v>
+        <v>966.0250082106129</v>
       </c>
       <c r="D11" t="n">
-        <v>966.0250082106136</v>
+        <v>966.0250082106129</v>
       </c>
       <c r="E11" t="n">
-        <v>675.3493242157107</v>
+        <v>675.34932421571</v>
       </c>
       <c r="F11" t="n">
-        <v>365.3081694248705</v>
+        <v>365.3081694248706</v>
       </c>
       <c r="G11" t="n">
         <v>53.83006995185939</v>
@@ -5039,10 +5039,10 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J11" t="n">
-        <v>168.7395715389739</v>
+        <v>168.7395715389741</v>
       </c>
       <c r="K11" t="n">
-        <v>473.1923450797436</v>
+        <v>473.1923450797439</v>
       </c>
       <c r="L11" t="n">
         <v>900.8629391120123</v>
@@ -5051,10 +5051,10 @@
         <v>1382.878536635265</v>
       </c>
       <c r="N11" t="n">
-        <v>1851.422822063999</v>
+        <v>1851.422822063998</v>
       </c>
       <c r="O11" t="n">
-        <v>2241.612915120951</v>
+        <v>2241.61291512095</v>
       </c>
       <c r="P11" t="n">
         <v>2542.473672317153</v>
@@ -5066,25 +5066,25 @@
         <v>2691.503497592969</v>
       </c>
       <c r="S11" t="n">
-        <v>2691.503497592969</v>
+        <v>2620.139516745525</v>
       </c>
       <c r="T11" t="n">
-        <v>2691.503497592969</v>
+        <v>2502.148744888883</v>
       </c>
       <c r="U11" t="n">
-        <v>2628.272981819728</v>
+        <v>2351.414712595772</v>
       </c>
       <c r="V11" t="n">
-        <v>2628.272981819728</v>
+        <v>2351.414712595772</v>
       </c>
       <c r="W11" t="n">
-        <v>2369.848087576319</v>
+        <v>2092.989818352363</v>
       </c>
       <c r="X11" t="n">
-        <v>2091.927982996803</v>
+        <v>1823.214054123016</v>
       </c>
       <c r="Y11" t="n">
-        <v>1802.496163471631</v>
+        <v>1533.782234597844</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J12" t="n">
-        <v>139.6416886918808</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="K12" t="n">
-        <v>412.8140319879685</v>
+        <v>412.8140319879686</v>
       </c>
       <c r="L12" t="n">
         <v>837.3714354702954</v>
@@ -5130,10 +5130,10 @@
         <v>1390.946415153564</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.021634199082</v>
+        <v>1887.773522322311</v>
       </c>
       <c r="O12" t="n">
-        <v>1990.583322823098</v>
+        <v>2344.335210946327</v>
       </c>
       <c r="P12" t="n">
         <v>2344.335210946327</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.4854800158998</v>
+        <v>415.4854800159</v>
       </c>
       <c r="C13" t="n">
-        <v>349.9795463765704</v>
+        <v>349.9795463765705</v>
       </c>
       <c r="D13" t="n">
-        <v>301.0176891033233</v>
+        <v>301.0176891033234</v>
       </c>
       <c r="E13" t="n">
         <v>253.1187107636324</v>
       </c>
       <c r="F13" t="n">
-        <v>204.7480916883997</v>
+        <v>204.7480916883998</v>
       </c>
       <c r="G13" t="n">
         <v>140.1697720330006</v>
       </c>
       <c r="H13" t="n">
-        <v>86.96445752989962</v>
+        <v>86.96445752989963</v>
       </c>
       <c r="I13" t="n">
         <v>53.83006995185939</v>
       </c>
       <c r="J13" t="n">
-        <v>113.0401533332701</v>
+        <v>113.0401533332698</v>
       </c>
       <c r="K13" t="n">
-        <v>275.031270748496</v>
+        <v>275.0312707484957</v>
       </c>
       <c r="L13" t="n">
-        <v>511.3938396611923</v>
+        <v>511.3938396611921</v>
       </c>
       <c r="M13" t="n">
-        <v>766.9756975562417</v>
+        <v>766.9756975562416</v>
       </c>
       <c r="N13" t="n">
         <v>1022.141089020923</v>
@@ -5215,7 +5215,7 @@
         <v>1254.698484896835</v>
       </c>
       <c r="P13" t="n">
-        <v>1447.134235552726</v>
+        <v>1447.134235552727</v>
       </c>
       <c r="Q13" t="n">
         <v>1530.392465689549</v>
@@ -5224,25 +5224,25 @@
         <v>1495.384994408407</v>
       </c>
       <c r="S13" t="n">
-        <v>1389.817817984421</v>
+        <v>1389.817817984422</v>
       </c>
       <c r="T13" t="n">
-        <v>1261.737580213158</v>
+        <v>1261.737580213159</v>
       </c>
       <c r="U13" t="n">
         <v>1078.669998041854</v>
       </c>
       <c r="V13" t="n">
-        <v>922.0447294992667</v>
+        <v>922.0447294992669</v>
       </c>
       <c r="W13" t="n">
-        <v>739.9983639156561</v>
+        <v>739.9983639156562</v>
       </c>
       <c r="X13" t="n">
-        <v>612.8559357100221</v>
+        <v>612.8559357100222</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.9308128012894</v>
+        <v>494.9308128012896</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1342.923937420777</v>
+        <v>1002.835152423578</v>
       </c>
       <c r="C14" t="n">
-        <v>1065.100214652575</v>
+        <v>725.0114296553746</v>
       </c>
       <c r="D14" t="n">
-        <v>796.3862857787885</v>
+        <v>725.0114296553746</v>
       </c>
       <c r="E14" t="n">
         <v>675.3493242157099</v>
@@ -5267,61 +5267,61 @@
         <v>365.3081694248705</v>
       </c>
       <c r="G14" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="H14" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I14" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J14" t="n">
-        <v>168.7395715389758</v>
+        <v>168.739571538974</v>
       </c>
       <c r="K14" t="n">
-        <v>473.1923450797456</v>
+        <v>473.1923450797436</v>
       </c>
       <c r="L14" t="n">
-        <v>900.8629391120143</v>
+        <v>900.8629391120123</v>
       </c>
       <c r="M14" t="n">
-        <v>1382.878536635267</v>
+        <v>1382.878536635265</v>
       </c>
       <c r="N14" t="n">
-        <v>1851.422822064</v>
+        <v>1851.422822063998</v>
       </c>
       <c r="O14" t="n">
-        <v>2241.612915120952</v>
+        <v>2241.61291512095</v>
       </c>
       <c r="P14" t="n">
-        <v>2542.473672317155</v>
+        <v>2542.473672317153</v>
       </c>
       <c r="Q14" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="R14" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="S14" t="n">
-        <v>2691.503497592971</v>
+        <v>2620.139516745525</v>
       </c>
       <c r="T14" t="n">
-        <v>2691.503497592971</v>
+        <v>2502.148744888883</v>
       </c>
       <c r="U14" t="n">
-        <v>2691.503497592971</v>
+        <v>2351.414712595772</v>
       </c>
       <c r="V14" t="n">
-        <v>2458.634259387903</v>
+        <v>2118.545474390703</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.209365144494</v>
+        <v>1860.120580147295</v>
       </c>
       <c r="X14" t="n">
-        <v>1922.289260564978</v>
+        <v>1582.200475567778</v>
       </c>
       <c r="Y14" t="n">
-        <v>1632.857441039806</v>
+        <v>1292.768656042606</v>
       </c>
     </row>
     <row r="15">
@@ -5346,13 +5346,13 @@
         <v>338.4342897756831</v>
       </c>
       <c r="G15" t="n">
-        <v>209.981794509559</v>
+        <v>209.9817945095589</v>
       </c>
       <c r="H15" t="n">
-        <v>112.7095614980201</v>
+        <v>112.70956149802</v>
       </c>
       <c r="I15" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J15" t="n">
         <v>139.6416886918809</v>
@@ -5364,7 +5364,7 @@
         <v>837.3714354702954</v>
       </c>
       <c r="M15" t="n">
-        <v>1390.946415153564</v>
+        <v>952.4002690100917</v>
       </c>
       <c r="N15" t="n">
         <v>1534.021634199082</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.4854800158998</v>
+        <v>415.4854800158997</v>
       </c>
       <c r="C16" t="n">
-        <v>349.9795463765704</v>
+        <v>349.9795463765703</v>
       </c>
       <c r="D16" t="n">
-        <v>301.0176891033234</v>
+        <v>301.0176891033233</v>
       </c>
       <c r="E16" t="n">
-        <v>253.1187107636325</v>
+        <v>253.1187107636324</v>
       </c>
       <c r="F16" t="n">
-        <v>204.7480916883999</v>
+        <v>204.7480916883997</v>
       </c>
       <c r="G16" t="n">
-        <v>140.1697720330008</v>
+        <v>140.1697720330005</v>
       </c>
       <c r="H16" t="n">
-        <v>86.96445752989965</v>
+        <v>86.9644575298996</v>
       </c>
       <c r="I16" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J16" t="n">
-        <v>113.0401533332699</v>
+        <v>113.04015333327</v>
       </c>
       <c r="K16" t="n">
-        <v>275.0312707484958</v>
+        <v>275.0312707484959</v>
       </c>
       <c r="L16" t="n">
-        <v>511.3938396611923</v>
+        <v>511.3938396611925</v>
       </c>
       <c r="M16" t="n">
-        <v>766.9756975562419</v>
+        <v>766.9756975562418</v>
       </c>
       <c r="N16" t="n">
         <v>1022.141089020923</v>
@@ -5476,10 +5476,10 @@
         <v>739.9983639156561</v>
       </c>
       <c r="X16" t="n">
-        <v>612.8559357100221</v>
+        <v>612.855935710022</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.9308128012894</v>
+        <v>494.9308128012893</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>1421.781315337256</v>
       </c>
       <c r="C17" t="n">
-        <v>1196.325862933264</v>
+        <v>1196.325862933263</v>
       </c>
       <c r="D17" t="n">
-        <v>979.9802044236869</v>
+        <v>979.9802044236865</v>
       </c>
       <c r="E17" t="n">
-        <v>741.6727907929936</v>
+        <v>741.6727907929932</v>
       </c>
       <c r="F17" t="n">
-        <v>483.9999063663638</v>
+        <v>483.9999063663633</v>
       </c>
       <c r="G17" t="n">
-        <v>224.8900772575623</v>
+        <v>224.8900772575612</v>
       </c>
       <c r="H17" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I17" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J17" t="n">
         <v>168.739571538974</v>
@@ -5531,34 +5531,34 @@
         <v>2241.61291512095</v>
       </c>
       <c r="P17" t="n">
-        <v>2542.473672317155</v>
+        <v>2542.473672317153</v>
       </c>
       <c r="Q17" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="R17" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="S17" t="n">
         <v>2672.507787109736</v>
       </c>
       <c r="T17" t="n">
-        <v>2606.885285617304</v>
+        <v>2606.885285617303</v>
       </c>
       <c r="U17" t="n">
-        <v>2508.519523688402</v>
+        <v>2508.519523688401</v>
       </c>
       <c r="V17" t="n">
-        <v>2328.018555847544</v>
+        <v>2328.018555847543</v>
       </c>
       <c r="W17" t="n">
-        <v>2121.961931968345</v>
+        <v>2121.961931968344</v>
       </c>
       <c r="X17" t="n">
-        <v>1896.410097753038</v>
+        <v>1896.410097753037</v>
       </c>
       <c r="Y17" t="n">
-        <v>1659.346548592076</v>
+        <v>1659.346548592075</v>
       </c>
     </row>
     <row r="18">
@@ -5577,25 +5577,25 @@
         <v>620.1560977689376</v>
       </c>
       <c r="E18" t="n">
-        <v>473.1280878258088</v>
+        <v>473.1280878258087</v>
       </c>
       <c r="F18" t="n">
-        <v>338.4342897756832</v>
+        <v>338.4342897756831</v>
       </c>
       <c r="G18" t="n">
-        <v>209.981794509559</v>
+        <v>209.9817945095589</v>
       </c>
       <c r="H18" t="n">
-        <v>112.7095614980201</v>
+        <v>112.70956149802</v>
       </c>
       <c r="I18" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J18" t="n">
         <v>139.6416886918809</v>
       </c>
       <c r="K18" t="n">
-        <v>412.8140319879685</v>
+        <v>412.8140319879686</v>
       </c>
       <c r="L18" t="n">
         <v>837.3714354702954</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.7413235848838</v>
+        <v>80.01482665705993</v>
       </c>
       <c r="C19" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194014</v>
       </c>
       <c r="D19" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194014</v>
       </c>
       <c r="E19" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194014</v>
       </c>
       <c r="F19" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194014</v>
       </c>
       <c r="G19" t="n">
-        <v>54.66711409075073</v>
+        <v>54.66711409075064</v>
       </c>
       <c r="H19" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I19" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J19" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="K19" t="n">
         <v>113.7829411824849</v>
       </c>
       <c r="L19" t="n">
-        <v>248.107263910581</v>
+        <v>248.1072639105811</v>
       </c>
       <c r="M19" t="n">
-        <v>401.6508756210301</v>
+        <v>401.6508756210302</v>
       </c>
       <c r="N19" t="n">
-        <v>554.7780209011107</v>
+        <v>554.7780209011108</v>
       </c>
       <c r="O19" t="n">
-        <v>685.2971705924225</v>
+        <v>685.2971705924226</v>
       </c>
       <c r="P19" t="n">
-        <v>775.6946750637142</v>
+        <v>775.6946750637143</v>
       </c>
       <c r="Q19" t="n">
-        <v>775.6946750637142</v>
+        <v>756.533348619701</v>
       </c>
       <c r="R19" t="n">
-        <v>775.6946750637142</v>
+        <v>740.9681781358898</v>
       </c>
       <c r="S19" t="n">
-        <v>722.4957690039383</v>
+        <v>687.769272076114</v>
       </c>
       <c r="T19" t="n">
-        <v>646.7838015968849</v>
+        <v>612.0573046690607</v>
       </c>
       <c r="U19" t="n">
-        <v>516.0844897897898</v>
+        <v>481.3579928619656</v>
       </c>
       <c r="V19" t="n">
-        <v>411.8274916114123</v>
+        <v>377.1009946835881</v>
       </c>
       <c r="W19" t="n">
-        <v>282.1493963920112</v>
+        <v>247.4228994641871</v>
       </c>
       <c r="X19" t="n">
-        <v>207.3752385505869</v>
+        <v>172.6487416227628</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.8183860060638</v>
+        <v>107.0918890782398</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1421.781315337257</v>
+        <v>1421.781315337255</v>
       </c>
       <c r="C20" t="n">
-        <v>1196.325862933264</v>
+        <v>1196.325862933262</v>
       </c>
       <c r="D20" t="n">
-        <v>979.9802044236873</v>
+        <v>979.9802044236858</v>
       </c>
       <c r="E20" t="n">
-        <v>741.672790792994</v>
+        <v>741.6727907929924</v>
       </c>
       <c r="F20" t="n">
-        <v>483.9999063663641</v>
+        <v>483.9999063663627</v>
       </c>
       <c r="G20" t="n">
         <v>224.8900772575613</v>
       </c>
       <c r="H20" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I20" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J20" t="n">
         <v>168.739571538974</v>
       </c>
       <c r="K20" t="n">
-        <v>473.1923450797436</v>
+        <v>473.1923450797438</v>
       </c>
       <c r="L20" t="n">
-        <v>900.8629391120123</v>
+        <v>900.8629391120126</v>
       </c>
       <c r="M20" t="n">
         <v>1382.878536635265</v>
       </c>
       <c r="N20" t="n">
-        <v>1851.422822063998</v>
+        <v>1851.422822063999</v>
       </c>
       <c r="O20" t="n">
         <v>2241.61291512095</v>
       </c>
       <c r="P20" t="n">
-        <v>2542.473672317155</v>
+        <v>2542.473672317153</v>
       </c>
       <c r="Q20" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="R20" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="S20" t="n">
-        <v>2672.507787109736</v>
+        <v>2672.507787109735</v>
       </c>
       <c r="T20" t="n">
-        <v>2606.885285617304</v>
+        <v>2606.885285617302</v>
       </c>
       <c r="U20" t="n">
-        <v>2508.519523688403</v>
+        <v>2508.519523688401</v>
       </c>
       <c r="V20" t="n">
-        <v>2328.018555847544</v>
+        <v>2328.018555847542</v>
       </c>
       <c r="W20" t="n">
-        <v>2121.961931968345</v>
+        <v>2121.961931968343</v>
       </c>
       <c r="X20" t="n">
-        <v>1896.410097753038</v>
+        <v>1896.410097753037</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.346548592076</v>
+        <v>1659.346548592074</v>
       </c>
     </row>
     <row r="21">
@@ -5814,40 +5814,40 @@
         <v>620.1560977689376</v>
       </c>
       <c r="E21" t="n">
-        <v>473.1280878258088</v>
+        <v>473.1280878258087</v>
       </c>
       <c r="F21" t="n">
-        <v>338.4342897756832</v>
+        <v>338.4342897756831</v>
       </c>
       <c r="G21" t="n">
-        <v>209.981794509559</v>
+        <v>209.9817945095589</v>
       </c>
       <c r="H21" t="n">
-        <v>112.7095614980201</v>
+        <v>112.70956149802</v>
       </c>
       <c r="I21" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J21" t="n">
-        <v>53.83006995185942</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="K21" t="n">
-        <v>327.0024132479471</v>
+        <v>412.8140319879686</v>
       </c>
       <c r="L21" t="n">
-        <v>751.559816730274</v>
+        <v>837.3714354702954</v>
       </c>
       <c r="M21" t="n">
-        <v>1305.134796413542</v>
+        <v>952.4002690100917</v>
       </c>
       <c r="N21" t="n">
-        <v>1726.323911174225</v>
+        <v>1534.021634199082</v>
       </c>
       <c r="O21" t="n">
-        <v>2182.885599798241</v>
+        <v>1990.583322823098</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.63748792147</v>
+        <v>2344.335210946327</v>
       </c>
       <c r="Q21" t="n">
         <v>2536.63748792147</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.7413235848838</v>
+        <v>95.57999714087065</v>
       </c>
       <c r="C22" t="n">
-        <v>101.603660309764</v>
+        <v>82.4423338657508</v>
       </c>
       <c r="D22" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="E22" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="F22" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39361101857443</v>
+        <v>54.66711409075069</v>
       </c>
       <c r="H22" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I22" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J22" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="K22" t="n">
         <v>113.7829411824849</v>
       </c>
       <c r="L22" t="n">
-        <v>248.107263910581</v>
+        <v>248.1072639105811</v>
       </c>
       <c r="M22" t="n">
-        <v>401.6508756210301</v>
+        <v>401.6508756210302</v>
       </c>
       <c r="N22" t="n">
-        <v>554.7780209011107</v>
+        <v>554.7780209011108</v>
       </c>
       <c r="O22" t="n">
-        <v>685.2971705924225</v>
+        <v>685.2971705924226</v>
       </c>
       <c r="P22" t="n">
-        <v>775.6946750637142</v>
+        <v>775.6946750637143</v>
       </c>
       <c r="Q22" t="n">
-        <v>775.6946750637142</v>
+        <v>756.533348619701</v>
       </c>
       <c r="R22" t="n">
-        <v>775.6946750637142</v>
+        <v>756.533348619701</v>
       </c>
       <c r="S22" t="n">
-        <v>722.4957690039383</v>
+        <v>703.3344425599252</v>
       </c>
       <c r="T22" t="n">
-        <v>646.7838015968849</v>
+        <v>627.6224751528717</v>
       </c>
       <c r="U22" t="n">
-        <v>516.0844897897898</v>
+        <v>496.9231633457766</v>
       </c>
       <c r="V22" t="n">
-        <v>411.8274916114123</v>
+        <v>392.6661651673991</v>
       </c>
       <c r="W22" t="n">
-        <v>282.1493963920112</v>
+        <v>262.988069947998</v>
       </c>
       <c r="X22" t="n">
-        <v>207.3752385505869</v>
+        <v>188.2139121065737</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.8183860060638</v>
+        <v>122.6570595620506</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1421.781315337256</v>
+        <v>1421.781315337255</v>
       </c>
       <c r="C23" t="n">
         <v>1196.325862933263</v>
@@ -5981,46 +5981,46 @@
         <v>224.8900772575613</v>
       </c>
       <c r="H23" t="n">
-        <v>53.83006995185941</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I23" t="n">
-        <v>53.83006995185941</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J23" t="n">
-        <v>168.739571538974</v>
+        <v>168.7395715389739</v>
       </c>
       <c r="K23" t="n">
-        <v>473.1923450797437</v>
+        <v>473.1923450797435</v>
       </c>
       <c r="L23" t="n">
-        <v>900.862939112014</v>
+        <v>900.8629391120121</v>
       </c>
       <c r="M23" t="n">
-        <v>1382.878536635267</v>
+        <v>1382.878536635265</v>
       </c>
       <c r="N23" t="n">
-        <v>1851.422822064</v>
+        <v>1851.422822063998</v>
       </c>
       <c r="O23" t="n">
-        <v>2241.612915120951</v>
+        <v>2241.61291512095</v>
       </c>
       <c r="P23" t="n">
-        <v>2542.473672317154</v>
+        <v>2542.473672317153</v>
       </c>
       <c r="Q23" t="n">
-        <v>2691.50349759297</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="R23" t="n">
-        <v>2691.50349759297</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="S23" t="n">
-        <v>2672.507787109736</v>
+        <v>2672.507787109735</v>
       </c>
       <c r="T23" t="n">
         <v>2606.885285617303</v>
       </c>
       <c r="U23" t="n">
-        <v>2508.519523688401</v>
+        <v>2508.519523688402</v>
       </c>
       <c r="V23" t="n">
         <v>2328.018555847543</v>
@@ -6057,25 +6057,25 @@
         <v>338.4342897756831</v>
       </c>
       <c r="G24" t="n">
-        <v>209.981794509559</v>
+        <v>209.9817945095589</v>
       </c>
       <c r="H24" t="n">
-        <v>112.7095614980201</v>
+        <v>112.70956149802</v>
       </c>
       <c r="I24" t="n">
-        <v>53.83006995185941</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J24" t="n">
-        <v>139.6416886918808</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="K24" t="n">
-        <v>412.8140319879685</v>
+        <v>327.0024132479471</v>
       </c>
       <c r="L24" t="n">
-        <v>837.3714354702954</v>
+        <v>398.8252893268233</v>
       </c>
       <c r="M24" t="n">
-        <v>952.4002690100921</v>
+        <v>952.4002690100917</v>
       </c>
       <c r="N24" t="n">
         <v>1534.021634199082</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.7413235848838</v>
+        <v>80.0148266570601</v>
       </c>
       <c r="C25" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="D25" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="E25" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="F25" t="n">
-        <v>101.603660309764</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39361101857443</v>
+        <v>54.66711409075069</v>
       </c>
       <c r="H25" t="n">
-        <v>53.83006995185941</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I25" t="n">
-        <v>53.83006995185941</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J25" t="n">
-        <v>53.83006995185941</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="K25" t="n">
         <v>113.7829411824849</v>
       </c>
       <c r="L25" t="n">
-        <v>248.107263910581</v>
+        <v>248.1072639105811</v>
       </c>
       <c r="M25" t="n">
-        <v>401.6508756210301</v>
+        <v>401.6508756210302</v>
       </c>
       <c r="N25" t="n">
-        <v>554.7780209011107</v>
+        <v>554.7780209011108</v>
       </c>
       <c r="O25" t="n">
-        <v>685.2971705924225</v>
+        <v>685.2971705924226</v>
       </c>
       <c r="P25" t="n">
-        <v>775.6946750637142</v>
+        <v>775.6946750637143</v>
       </c>
       <c r="Q25" t="n">
-        <v>775.6946750637142</v>
+        <v>775.6946750637143</v>
       </c>
       <c r="R25" t="n">
-        <v>775.6946750637142</v>
+        <v>740.9681781358904</v>
       </c>
       <c r="S25" t="n">
-        <v>722.4957690039383</v>
+        <v>687.7692720761146</v>
       </c>
       <c r="T25" t="n">
-        <v>646.7838015968849</v>
+        <v>612.0573046690612</v>
       </c>
       <c r="U25" t="n">
-        <v>516.0844897897898</v>
+        <v>481.3579928619661</v>
       </c>
       <c r="V25" t="n">
-        <v>411.8274916114123</v>
+        <v>377.1009946835885</v>
       </c>
       <c r="W25" t="n">
-        <v>282.1493963920112</v>
+        <v>247.4228994641875</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3752385505869</v>
+        <v>172.6487416227631</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.8183860060638</v>
+        <v>107.0918890782401</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1800.769433661141</v>
+        <v>1800.76943366114</v>
       </c>
       <c r="C26" t="n">
-        <v>1522.945710892939</v>
+        <v>1522.945710892938</v>
       </c>
       <c r="D26" t="n">
         <v>1254.231782019152</v>
       </c>
       <c r="E26" t="n">
-        <v>963.5560980242494</v>
+        <v>963.556098024249</v>
       </c>
       <c r="F26" t="n">
-        <v>653.5149432334099</v>
+        <v>653.5149432334097</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0368437603984</v>
+        <v>342.0368437603985</v>
       </c>
       <c r="H26" t="n">
         <v>118.6085660904869</v>
       </c>
       <c r="I26" t="n">
-        <v>69.78875557661067</v>
+        <v>69.78875557661065</v>
       </c>
       <c r="J26" t="n">
-        <v>286.7365033483256</v>
+        <v>207.44346794787</v>
       </c>
       <c r="K26" t="n">
-        <v>693.2275230736956</v>
+        <v>613.93448767324</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.936363290565</v>
+        <v>1143.643327890109</v>
       </c>
       <c r="M26" t="n">
-        <v>1806.990206998418</v>
+        <v>1727.697171597962</v>
       </c>
       <c r="N26" t="n">
-        <v>2377.572738611751</v>
+        <v>2298.279703211296</v>
       </c>
       <c r="O26" t="n">
-        <v>2869.801077853303</v>
+        <v>2790.508042452848</v>
       </c>
       <c r="P26" t="n">
         <v>3193.407045833651</v>
       </c>
       <c r="Q26" t="n">
-        <v>3444.475117294068</v>
+        <v>3444.475117294067</v>
       </c>
       <c r="R26" t="n">
         <v>3489.437778830533</v>
@@ -6254,7 +6254,7 @@
         <v>3418.073797983089</v>
       </c>
       <c r="T26" t="n">
-        <v>3300.083026126447</v>
+        <v>3300.083026126446</v>
       </c>
       <c r="U26" t="n">
         <v>3149.348993833335</v>
@@ -6263,13 +6263,13 @@
         <v>2916.479755628267</v>
       </c>
       <c r="W26" t="n">
-        <v>2658.054861384858</v>
+        <v>2658.054861384857</v>
       </c>
       <c r="X26" t="n">
-        <v>2380.134756805342</v>
+        <v>2380.134756805341</v>
       </c>
       <c r="Y26" t="n">
-        <v>2090.70293728017</v>
+        <v>2090.702937280169</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>128.6682471227713</v>
       </c>
       <c r="I27" t="n">
-        <v>69.78875557661067</v>
+        <v>69.78875557661065</v>
       </c>
       <c r="J27" t="n">
         <v>155.6003743166321</v>
@@ -6312,7 +6312,7 @@
         <v>853.3301210950467</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.905100778315</v>
+        <v>968.3589546348433</v>
       </c>
       <c r="N27" t="n">
         <v>1549.980319823834</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.4441656406511</v>
+        <v>431.4441656406512</v>
       </c>
       <c r="C28" t="n">
-        <v>365.9382320013216</v>
+        <v>365.9382320013218</v>
       </c>
       <c r="D28" t="n">
-        <v>316.9763747280745</v>
+        <v>316.9763747280747</v>
       </c>
       <c r="E28" t="n">
-        <v>269.0773963883836</v>
+        <v>269.0773963883838</v>
       </c>
       <c r="F28" t="n">
-        <v>220.7067773131509</v>
+        <v>220.7067773131511</v>
       </c>
       <c r="G28" t="n">
-        <v>156.1284576577517</v>
+        <v>156.1284576577519</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9231431546511</v>
+        <v>102.9231431546509</v>
       </c>
       <c r="I28" t="n">
-        <v>69.78875557661067</v>
+        <v>69.78875557661065</v>
       </c>
       <c r="J28" t="n">
-        <v>128.9988389580213</v>
+        <v>128.9988389580212</v>
       </c>
       <c r="K28" t="n">
-        <v>290.989956373247</v>
+        <v>290.9899563732471</v>
       </c>
       <c r="L28" t="n">
-        <v>527.3525252859433</v>
+        <v>527.3525252859436</v>
       </c>
       <c r="M28" t="n">
-        <v>782.9343831809929</v>
+        <v>782.9343831809931</v>
       </c>
       <c r="N28" t="n">
         <v>1038.099774645674</v>
@@ -6418,7 +6418,7 @@
         <v>1094.628683666605</v>
       </c>
       <c r="V28" t="n">
-        <v>938.0034151240183</v>
+        <v>938.0034151240176</v>
       </c>
       <c r="W28" t="n">
         <v>755.9570495404076</v>
@@ -6427,7 +6427,7 @@
         <v>628.8146213347736</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.8894984260407</v>
+        <v>510.8894984260409</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800.76943366114</v>
+        <v>1800.769433661141</v>
       </c>
       <c r="C29" t="n">
         <v>1522.945710892938</v>
@@ -6446,37 +6446,37 @@
         <v>1254.231782019152</v>
       </c>
       <c r="E29" t="n">
-        <v>963.5560980242489</v>
+        <v>963.5560980242485</v>
       </c>
       <c r="F29" t="n">
-        <v>653.5149432334094</v>
+        <v>653.5149432334092</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0368437603984</v>
+        <v>342.0368437603983</v>
       </c>
       <c r="H29" t="n">
-        <v>118.6085660904869</v>
+        <v>118.608566090487</v>
       </c>
       <c r="I29" t="n">
-        <v>69.78875557661067</v>
+        <v>69.78875557661065</v>
       </c>
       <c r="J29" t="n">
-        <v>286.7365033483256</v>
+        <v>286.7365033483255</v>
       </c>
       <c r="K29" t="n">
-        <v>693.2275230736956</v>
+        <v>693.2275230736955</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.936363290565</v>
+        <v>1222.936363290564</v>
       </c>
       <c r="M29" t="n">
-        <v>1806.990206998418</v>
+        <v>1806.990206998417</v>
       </c>
       <c r="N29" t="n">
-        <v>2377.572738611751</v>
+        <v>2298.279703211296</v>
       </c>
       <c r="O29" t="n">
-        <v>2869.801077853303</v>
+        <v>2790.508042452848</v>
       </c>
       <c r="P29" t="n">
         <v>3193.407045833651</v>
@@ -6491,19 +6491,19 @@
         <v>3418.073797983089</v>
       </c>
       <c r="T29" t="n">
-        <v>3300.083026126447</v>
+        <v>3300.083026126446</v>
       </c>
       <c r="U29" t="n">
         <v>3149.348993833335</v>
       </c>
       <c r="V29" t="n">
-        <v>2916.479755628266</v>
+        <v>2916.479755628267</v>
       </c>
       <c r="W29" t="n">
-        <v>2658.054861384857</v>
+        <v>2658.054861384858</v>
       </c>
       <c r="X29" t="n">
-        <v>2380.134756805341</v>
+        <v>2380.134756805342</v>
       </c>
       <c r="Y29" t="n">
         <v>2090.702937280169</v>
@@ -6537,7 +6537,7 @@
         <v>128.6682471227713</v>
       </c>
       <c r="I30" t="n">
-        <v>69.78875557661067</v>
+        <v>69.78875557661065</v>
       </c>
       <c r="J30" t="n">
         <v>155.6003743166321</v>
@@ -6549,7 +6549,7 @@
         <v>853.3301210950467</v>
       </c>
       <c r="M30" t="n">
-        <v>968.3589546348435</v>
+        <v>968.3589546348433</v>
       </c>
       <c r="N30" t="n">
         <v>1549.980319823834</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431.4441656406508</v>
+        <v>431.4441656406518</v>
       </c>
       <c r="C31" t="n">
-        <v>365.9382320013213</v>
+        <v>365.9382320013222</v>
       </c>
       <c r="D31" t="n">
-        <v>316.9763747280742</v>
+        <v>316.9763747280751</v>
       </c>
       <c r="E31" t="n">
-        <v>269.0773963883833</v>
+        <v>269.077396388384</v>
       </c>
       <c r="F31" t="n">
-        <v>220.7067773131507</v>
+        <v>220.7067773131513</v>
       </c>
       <c r="G31" t="n">
-        <v>156.1284576577515</v>
+        <v>156.128457657752</v>
       </c>
       <c r="H31" t="n">
-        <v>102.9231431546509</v>
+        <v>102.923143154651</v>
       </c>
       <c r="I31" t="n">
-        <v>69.78875557661067</v>
+        <v>69.78875557661065</v>
       </c>
       <c r="J31" t="n">
         <v>128.9988389580212</v>
       </c>
       <c r="K31" t="n">
-        <v>290.9899563732468</v>
+        <v>290.989956373247</v>
       </c>
       <c r="L31" t="n">
-        <v>527.3525252859434</v>
+        <v>527.3525252859433</v>
       </c>
       <c r="M31" t="n">
-        <v>782.9343831809928</v>
+        <v>782.9343831809942</v>
       </c>
       <c r="N31" t="n">
-        <v>1038.099774645674</v>
+        <v>1038.099774645675</v>
       </c>
       <c r="O31" t="n">
-        <v>1270.657170521586</v>
+        <v>1270.657170521587</v>
       </c>
       <c r="P31" t="n">
-        <v>1463.092921177477</v>
+        <v>1463.092921177479</v>
       </c>
       <c r="Q31" t="n">
-        <v>1546.3511513143</v>
+        <v>1546.351151314302</v>
       </c>
       <c r="R31" t="n">
-        <v>1511.343680033158</v>
+        <v>1511.34368003316</v>
       </c>
       <c r="S31" t="n">
-        <v>1405.776503609173</v>
+        <v>1405.776503609174</v>
       </c>
       <c r="T31" t="n">
-        <v>1277.69626583791</v>
+        <v>1277.696265837911</v>
       </c>
       <c r="U31" t="n">
-        <v>1094.628683666605</v>
+        <v>1094.628683666606</v>
       </c>
       <c r="V31" t="n">
-        <v>938.0034151240178</v>
+        <v>938.0034151240191</v>
       </c>
       <c r="W31" t="n">
-        <v>755.9570495404072</v>
+        <v>755.9570495404083</v>
       </c>
       <c r="X31" t="n">
-        <v>628.8146213347732</v>
+        <v>628.8146213347742</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.8894984260404</v>
+        <v>510.8894984260414</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1237.670895955728</v>
       </c>
       <c r="E32" t="n">
-        <v>950.1163020266239</v>
+        <v>950.116302026624</v>
       </c>
       <c r="F32" t="n">
         <v>643.1962373015836</v>
@@ -6692,40 +6692,40 @@
         <v>334.8392278943716</v>
       </c>
       <c r="H32" t="n">
-        <v>114.5320402902595</v>
+        <v>114.5320402902596</v>
       </c>
       <c r="I32" t="n">
-        <v>68.83331984218236</v>
+        <v>68.83331984218235</v>
       </c>
       <c r="J32" t="n">
-        <v>288.840047987387</v>
+        <v>240.2970647966271</v>
       </c>
       <c r="K32" t="n">
-        <v>698.3900480862467</v>
+        <v>649.8470648954868</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.157868676605</v>
+        <v>1077.517658927756</v>
       </c>
       <c r="M32" t="n">
-        <v>1818.270692757948</v>
+        <v>1664.630483009098</v>
       </c>
       <c r="N32" t="n">
-        <v>2286.814978186681</v>
+        <v>2238.271994995921</v>
       </c>
       <c r="O32" t="n">
-        <v>2782.102297801723</v>
+        <v>2733.559314610963</v>
       </c>
       <c r="P32" t="n">
         <v>3139.517298365256</v>
       </c>
       <c r="Q32" t="n">
-        <v>3393.644350199163</v>
+        <v>3393.644350199162</v>
       </c>
       <c r="R32" t="n">
-        <v>3441.665992109118</v>
+        <v>3441.665992109117</v>
       </c>
       <c r="S32" t="n">
-        <v>3373.423101327473</v>
+        <v>3373.423101327472</v>
       </c>
       <c r="T32" t="n">
         <v>3258.553419536629</v>
@@ -6774,28 +6774,28 @@
         <v>127.712811388343</v>
       </c>
       <c r="I33" t="n">
-        <v>68.83331984218236</v>
+        <v>68.83331984218235</v>
       </c>
       <c r="J33" t="n">
-        <v>154.6449385822038</v>
+        <v>68.83331984218235</v>
       </c>
       <c r="K33" t="n">
-        <v>427.8172818782915</v>
+        <v>342.0056631382701</v>
       </c>
       <c r="L33" t="n">
-        <v>852.3746853606183</v>
+        <v>766.5630666205969</v>
       </c>
       <c r="M33" t="n">
-        <v>967.4035189004148</v>
+        <v>1159.705795875557</v>
       </c>
       <c r="N33" t="n">
-        <v>1549.024884089405</v>
+        <v>1741.327161064548</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.586572713421</v>
+        <v>2197.888849688564</v>
       </c>
       <c r="P33" t="n">
-        <v>2359.33846083665</v>
+        <v>2551.640737811793</v>
       </c>
       <c r="Q33" t="n">
         <v>2551.640737811793</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>408.6410994456293</v>
+        <v>408.6410994456294</v>
       </c>
       <c r="C34" t="n">
-        <v>346.2562558720989</v>
+        <v>346.256255872099</v>
       </c>
       <c r="D34" t="n">
-        <v>300.4154886646509</v>
+        <v>300.415488664651</v>
       </c>
       <c r="E34" t="n">
-        <v>255.637600390759</v>
+        <v>255.6376003907592</v>
       </c>
       <c r="F34" t="n">
         <v>210.3880713813255</v>
@@ -6850,25 +6850,25 @@
         <v>148.9308417917254</v>
       </c>
       <c r="H34" t="n">
-        <v>98.84661735442351</v>
+        <v>98.84661735442353</v>
       </c>
       <c r="I34" t="n">
-        <v>68.83331984218236</v>
+        <v>68.83331984218235</v>
       </c>
       <c r="J34" t="n">
         <v>131.1023835970826</v>
       </c>
       <c r="K34" t="n">
-        <v>221.7431973450954</v>
+        <v>296.1524813857981</v>
       </c>
       <c r="L34" t="n">
-        <v>461.1647466312814</v>
+        <v>535.5740306719842</v>
       </c>
       <c r="M34" t="n">
-        <v>719.8055848998206</v>
+        <v>719.8055848998208</v>
       </c>
       <c r="N34" t="n">
-        <v>978.0299567379911</v>
+        <v>978.0299567379914</v>
       </c>
       <c r="O34" t="n">
         <v>1213.646332987393</v>
@@ -6892,16 +6892,16 @@
         <v>1056.220167142588</v>
       </c>
       <c r="V34" t="n">
-        <v>902.7159886658</v>
+        <v>902.7159886658002</v>
       </c>
       <c r="W34" t="n">
-        <v>723.7907131479884</v>
+        <v>723.7907131479885</v>
       </c>
       <c r="X34" t="n">
-        <v>599.7693750081535</v>
+        <v>599.7693750081536</v>
       </c>
       <c r="Y34" t="n">
-        <v>484.9653421652199</v>
+        <v>484.96534216522</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1421.781315337256</v>
+        <v>1421.781315337255</v>
       </c>
       <c r="C35" t="n">
         <v>1196.325862933263</v>
@@ -6920,67 +6920,67 @@
         <v>979.9802044236862</v>
       </c>
       <c r="E35" t="n">
-        <v>741.6727907929928</v>
+        <v>741.6727907929929</v>
       </c>
       <c r="F35" t="n">
-        <v>483.9999063663629</v>
+        <v>483.9999063663631</v>
       </c>
       <c r="G35" t="n">
-        <v>224.8900772575614</v>
+        <v>224.8900772575613</v>
       </c>
       <c r="H35" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I35" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J35" t="n">
-        <v>168.7395715389758</v>
+        <v>168.7395715389741</v>
       </c>
       <c r="K35" t="n">
-        <v>473.1923450797456</v>
+        <v>473.1923450797439</v>
       </c>
       <c r="L35" t="n">
-        <v>900.8629391120143</v>
+        <v>900.8629391120126</v>
       </c>
       <c r="M35" t="n">
-        <v>1382.878536635267</v>
+        <v>1382.878536635265</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.422822064</v>
+        <v>1851.422822063999</v>
       </c>
       <c r="O35" t="n">
-        <v>2241.612915120952</v>
+        <v>2241.612915120951</v>
       </c>
       <c r="P35" t="n">
-        <v>2542.473672317155</v>
+        <v>2542.473672317153</v>
       </c>
       <c r="Q35" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="R35" t="n">
-        <v>2691.503497592971</v>
+        <v>2691.503497592969</v>
       </c>
       <c r="S35" t="n">
-        <v>2672.507787109736</v>
+        <v>2672.507787109735</v>
       </c>
       <c r="T35" t="n">
-        <v>2606.885285617304</v>
+        <v>2606.885285617303</v>
       </c>
       <c r="U35" t="n">
-        <v>2508.519523688402</v>
+        <v>2508.519523688401</v>
       </c>
       <c r="V35" t="n">
-        <v>2328.018555847544</v>
+        <v>2328.018555847543</v>
       </c>
       <c r="W35" t="n">
-        <v>2121.961931968344</v>
+        <v>2121.961931968343</v>
       </c>
       <c r="X35" t="n">
         <v>1896.410097753037</v>
       </c>
       <c r="Y35" t="n">
-        <v>1659.346548592075</v>
+        <v>1659.346548592074</v>
       </c>
     </row>
     <row r="36">
@@ -7005,13 +7005,13 @@
         <v>338.4342897756831</v>
       </c>
       <c r="G36" t="n">
-        <v>209.981794509559</v>
+        <v>209.9817945095589</v>
       </c>
       <c r="H36" t="n">
-        <v>112.7095614980201</v>
+        <v>112.70956149802</v>
       </c>
       <c r="I36" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J36" t="n">
         <v>139.6416886918809</v>
@@ -7023,7 +7023,7 @@
         <v>837.3714354702954</v>
       </c>
       <c r="M36" t="n">
-        <v>952.400269010092</v>
+        <v>1390.946415153564</v>
       </c>
       <c r="N36" t="n">
         <v>1534.021634199082</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.01482665706047</v>
+        <v>80.0148266570601</v>
       </c>
       <c r="C37" t="n">
-        <v>66.87716338194051</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="D37" t="n">
-        <v>66.87716338194051</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="E37" t="n">
-        <v>66.87716338194051</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="F37" t="n">
-        <v>66.87716338194051</v>
+        <v>66.87716338194025</v>
       </c>
       <c r="G37" t="n">
-        <v>54.66711409075084</v>
+        <v>54.66711409075069</v>
       </c>
       <c r="H37" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I37" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="J37" t="n">
-        <v>53.83006995185942</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="K37" t="n">
-        <v>113.782941182485</v>
+        <v>113.7829411824849</v>
       </c>
       <c r="L37" t="n">
         <v>248.1072639105811</v>
@@ -7117,28 +7117,28 @@
         <v>775.6946750637143</v>
       </c>
       <c r="R37" t="n">
-        <v>740.9681781358918</v>
+        <v>775.6946750637143</v>
       </c>
       <c r="S37" t="n">
-        <v>687.7692720761158</v>
+        <v>722.4957690039384</v>
       </c>
       <c r="T37" t="n">
-        <v>612.0573046690623</v>
+        <v>646.783801596885</v>
       </c>
       <c r="U37" t="n">
-        <v>481.357992861967</v>
+        <v>516.0844897897899</v>
       </c>
       <c r="V37" t="n">
-        <v>377.1009946835894</v>
+        <v>411.8274916114124</v>
       </c>
       <c r="W37" t="n">
-        <v>247.4228994641882</v>
+        <v>282.1493963920113</v>
       </c>
       <c r="X37" t="n">
-        <v>172.6487416227637</v>
+        <v>172.6487416227631</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.0918890782406</v>
+        <v>107.0918890782401</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1196.325862933263</v>
       </c>
       <c r="D38" t="n">
-        <v>979.9802044236862</v>
+        <v>979.9802044236864</v>
       </c>
       <c r="E38" t="n">
-        <v>741.6727907929929</v>
+        <v>741.6727907929931</v>
       </c>
       <c r="F38" t="n">
         <v>483.9999063663631</v>
@@ -7172,22 +7172,22 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J38" t="n">
-        <v>168.739571538974</v>
+        <v>168.7395715389739</v>
       </c>
       <c r="K38" t="n">
-        <v>473.1923450797437</v>
+        <v>473.192345079744</v>
       </c>
       <c r="L38" t="n">
-        <v>900.8629391120124</v>
+        <v>900.8629391120128</v>
       </c>
       <c r="M38" t="n">
-        <v>1382.878536635265</v>
+        <v>1382.878536635266</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.422822063998</v>
+        <v>1851.422822063999</v>
       </c>
       <c r="O38" t="n">
-        <v>2241.61291512095</v>
+        <v>2241.612915120951</v>
       </c>
       <c r="P38" t="n">
         <v>2542.473672317153</v>
@@ -7251,10 +7251,10 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J39" t="n">
-        <v>139.6416886918808</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="K39" t="n">
-        <v>412.8140319879685</v>
+        <v>412.8140319879686</v>
       </c>
       <c r="L39" t="n">
         <v>837.3714354702954</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.7413235848844</v>
+        <v>80.01482665705984</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6036603097646</v>
+        <v>66.87716338194008</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6036603097646</v>
+        <v>66.87716338194008</v>
       </c>
       <c r="E40" t="n">
-        <v>101.6036603097646</v>
+        <v>66.87716338194008</v>
       </c>
       <c r="F40" t="n">
-        <v>101.6036603097646</v>
+        <v>66.87716338194008</v>
       </c>
       <c r="G40" t="n">
-        <v>89.39361101857507</v>
+        <v>54.66711409075061</v>
       </c>
       <c r="H40" t="n">
-        <v>88.55656687968383</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="I40" t="n">
         <v>53.83006995185939</v>
@@ -7360,22 +7360,22 @@
         <v>722.4957690039384</v>
       </c>
       <c r="T40" t="n">
-        <v>646.7838015968852</v>
+        <v>612.0573046690604</v>
       </c>
       <c r="U40" t="n">
-        <v>516.08448978979</v>
+        <v>481.3579928619654</v>
       </c>
       <c r="V40" t="n">
-        <v>411.8274916114125</v>
+        <v>377.1009946835879</v>
       </c>
       <c r="W40" t="n">
-        <v>282.1493963920116</v>
+        <v>247.422899464187</v>
       </c>
       <c r="X40" t="n">
-        <v>207.3752385505873</v>
+        <v>172.6487416227627</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.8183860060643</v>
+        <v>107.0918890782397</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1410.898476962181</v>
+        <v>1216.528989317613</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.407590772063</v>
+        <v>1153.407590772062</v>
       </c>
       <c r="D41" t="n">
-        <v>905.0264984763609</v>
+        <v>905.0264984763597</v>
       </c>
       <c r="E41" t="n">
-        <v>634.6836510595422</v>
+        <v>634.6836510595411</v>
       </c>
       <c r="F41" t="n">
         <v>344.9753328467862</v>
@@ -7409,22 +7409,22 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J41" t="n">
-        <v>168.7395715389744</v>
+        <v>168.7395715389739</v>
       </c>
       <c r="K41" t="n">
         <v>473.192345079744</v>
       </c>
       <c r="L41" t="n">
-        <v>900.8629391120127</v>
+        <v>900.8629391120128</v>
       </c>
       <c r="M41" t="n">
-        <v>1382.878536635265</v>
+        <v>1382.878536635266</v>
       </c>
       <c r="N41" t="n">
         <v>1851.422822063999</v>
       </c>
       <c r="O41" t="n">
-        <v>2241.61291512095</v>
+        <v>2241.612915120951</v>
       </c>
       <c r="P41" t="n">
         <v>2542.473672317153</v>
@@ -7439,22 +7439,22 @@
         <v>2691.503497592969</v>
       </c>
       <c r="T41" t="n">
-        <v>2691.503497592969</v>
+        <v>2593.845562314411</v>
       </c>
       <c r="U41" t="n">
-        <v>2657.813854243953</v>
+        <v>2463.444366599385</v>
       </c>
       <c r="V41" t="n">
-        <v>2445.277452616969</v>
+        <v>2250.907964972401</v>
       </c>
       <c r="W41" t="n">
-        <v>2207.185394951645</v>
+        <v>2012.815907307076</v>
       </c>
       <c r="X41" t="n">
-        <v>1949.598126950213</v>
+        <v>1755.228639305644</v>
       </c>
       <c r="Y41" t="n">
-        <v>1680.499144003125</v>
+        <v>1486.129656358557</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J42" t="n">
-        <v>139.6416886918808</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="K42" t="n">
-        <v>412.8140319879685</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="L42" t="n">
-        <v>837.3714354702954</v>
+        <v>564.1990921742077</v>
       </c>
       <c r="M42" t="n">
-        <v>1390.946415153564</v>
+        <v>1117.774071857476</v>
       </c>
       <c r="N42" t="n">
         <v>1534.021634199082</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>273.1556239693097</v>
+        <v>273.1556239693094</v>
       </c>
       <c r="C43" t="n">
-        <v>227.9825269080645</v>
+        <v>227.9825269080642</v>
       </c>
       <c r="D43" t="n">
-        <v>199.3535062129018</v>
+        <v>199.3535062129016</v>
       </c>
       <c r="E43" t="n">
-        <v>171.7873644512952</v>
+        <v>171.787364451295</v>
       </c>
       <c r="F43" t="n">
-        <v>143.7495819541468</v>
+        <v>143.7495819541467</v>
       </c>
       <c r="G43" t="n">
-        <v>99.50409887683193</v>
+        <v>99.50409887683185</v>
       </c>
       <c r="H43" t="n">
-        <v>66.63162095181531</v>
+        <v>66.63162095181526</v>
       </c>
       <c r="I43" t="n">
         <v>53.83006995185939</v>
       </c>
       <c r="J43" t="n">
-        <v>132.9683664634504</v>
+        <v>132.9683664634505</v>
       </c>
       <c r="K43" t="n">
         <v>192.921237694076</v>
       </c>
       <c r="L43" t="n">
-        <v>330.3603073905024</v>
+        <v>327.2455604221722</v>
       </c>
       <c r="M43" t="n">
-        <v>483.9039191009515</v>
+        <v>602.755631447402</v>
       </c>
       <c r="N43" t="n">
-        <v>637.0310643810321</v>
+        <v>877.8492360422636</v>
       </c>
       <c r="O43" t="n">
-        <v>889.5166733871247</v>
+        <v>1114.669575968908</v>
       </c>
       <c r="P43" t="n">
-        <v>1101.880637173197</v>
+        <v>1205.0670804402</v>
       </c>
       <c r="Q43" t="n">
         <v>1205.0670804402</v>
       </c>
       <c r="R43" t="n">
-        <v>1190.392445737143</v>
+        <v>1190.392445737142</v>
       </c>
       <c r="S43" t="n">
-        <v>1105.158105891242</v>
+        <v>1105.158105891241</v>
       </c>
       <c r="T43" t="n">
-        <v>997.4107046980629</v>
+        <v>997.4107046980622</v>
       </c>
       <c r="U43" t="n">
-        <v>834.6759591048424</v>
+        <v>834.6759591048418</v>
       </c>
       <c r="V43" t="n">
-        <v>698.3835271403395</v>
+        <v>698.383527140339</v>
       </c>
       <c r="W43" t="n">
-        <v>536.6699981348131</v>
+        <v>536.6699981348127</v>
       </c>
       <c r="X43" t="n">
-        <v>429.8604065072633</v>
+        <v>429.860406507263</v>
       </c>
       <c r="Y43" t="n">
-        <v>332.268120176615</v>
+        <v>332.2681201766146</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1454.621046982937</v>
+        <v>1165.497845048253</v>
       </c>
       <c r="C44" t="n">
-        <v>1197.130160792818</v>
+        <v>908.0069588581346</v>
       </c>
       <c r="D44" t="n">
-        <v>1108.121939568187</v>
+        <v>905.0264984763598</v>
       </c>
       <c r="E44" t="n">
-        <v>837.7790921513686</v>
+        <v>634.6836510595413</v>
       </c>
       <c r="F44" t="n">
-        <v>548.0707739386135</v>
+        <v>344.9753328467862</v>
       </c>
       <c r="G44" t="n">
-        <v>256.9255110436866</v>
+        <v>53.83006995185939</v>
       </c>
       <c r="H44" t="n">
         <v>53.83006995185939</v>
@@ -7649,7 +7649,7 @@
         <v>168.739571538974</v>
       </c>
       <c r="K44" t="n">
-        <v>473.1923450797437</v>
+        <v>473.1923450797438</v>
       </c>
       <c r="L44" t="n">
         <v>900.8629391120123</v>
@@ -7673,25 +7673,25 @@
         <v>2691.503497592969</v>
       </c>
       <c r="S44" t="n">
-        <v>2691.503497592969</v>
+        <v>2640.47235332361</v>
       </c>
       <c r="T44" t="n">
-        <v>2593.845562314411</v>
+        <v>2542.814418045052</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.444366599385</v>
+        <v>2412.413222330025</v>
       </c>
       <c r="V44" t="n">
-        <v>2250.907964972401</v>
+        <v>2199.876820703041</v>
       </c>
       <c r="W44" t="n">
-        <v>2250.907964972401</v>
+        <v>1961.784763037717</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.320696970969</v>
+        <v>1704.197495036285</v>
       </c>
       <c r="Y44" t="n">
-        <v>1724.221714023881</v>
+        <v>1435.098512089197</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.83006995185939</v>
       </c>
       <c r="J45" t="n">
-        <v>139.6416886918808</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="K45" t="n">
-        <v>412.8140319879685</v>
+        <v>139.6416886918809</v>
       </c>
       <c r="L45" t="n">
-        <v>837.3714354702954</v>
+        <v>564.1990921742077</v>
       </c>
       <c r="M45" t="n">
-        <v>1390.946415153564</v>
+        <v>1117.774071857476</v>
       </c>
       <c r="N45" t="n">
-        <v>1726.323911174225</v>
+        <v>1699.395437046467</v>
       </c>
       <c r="O45" t="n">
-        <v>2182.885599798241</v>
+        <v>1990.583322823098</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.63748792147</v>
+        <v>2344.335210946327</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.63748792147</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>273.15562396931</v>
+        <v>273.1556239693094</v>
       </c>
       <c r="C46" t="n">
-        <v>227.9825269080648</v>
+        <v>227.9825269080642</v>
       </c>
       <c r="D46" t="n">
-        <v>199.353506212902</v>
+        <v>199.3535062129016</v>
       </c>
       <c r="E46" t="n">
-        <v>171.7873644512953</v>
+        <v>171.787364451295</v>
       </c>
       <c r="F46" t="n">
-        <v>143.7495819541469</v>
+        <v>143.7495819541467</v>
       </c>
       <c r="G46" t="n">
-        <v>99.50409887683202</v>
+        <v>99.50409887683185</v>
       </c>
       <c r="H46" t="n">
-        <v>66.63162095181535</v>
+        <v>66.63162095181526</v>
       </c>
       <c r="I46" t="n">
         <v>53.83006995185939</v>
@@ -7807,49 +7807,49 @@
         <v>53.83006995185939</v>
       </c>
       <c r="K46" t="n">
-        <v>113.7829411824849</v>
+        <v>235.7494004972658</v>
       </c>
       <c r="L46" t="n">
-        <v>248.1072639105811</v>
+        <v>370.0737232253619</v>
       </c>
       <c r="M46" t="n">
-        <v>401.6508756210302</v>
+        <v>523.6173349358111</v>
       </c>
       <c r="N46" t="n">
-        <v>637.0310643810328</v>
+        <v>798.7109395306725</v>
       </c>
       <c r="O46" t="n">
-        <v>889.5166733871254</v>
+        <v>1011.483132701905</v>
       </c>
       <c r="P46" t="n">
-        <v>1101.880637173198</v>
+        <v>1101.880637173196</v>
       </c>
       <c r="Q46" t="n">
-        <v>1205.067080440201</v>
+        <v>1205.0670804402</v>
       </c>
       <c r="R46" t="n">
-        <v>1190.392445737143</v>
+        <v>1190.392445737142</v>
       </c>
       <c r="S46" t="n">
-        <v>1105.158105891242</v>
+        <v>1105.158105891241</v>
       </c>
       <c r="T46" t="n">
-        <v>997.4107046980633</v>
+        <v>997.4107046980622</v>
       </c>
       <c r="U46" t="n">
-        <v>834.6759591048428</v>
+        <v>834.6759591048418</v>
       </c>
       <c r="V46" t="n">
-        <v>698.3835271403399</v>
+        <v>698.383527140339</v>
       </c>
       <c r="W46" t="n">
-        <v>536.6699981348135</v>
+        <v>536.6699981348127</v>
       </c>
       <c r="X46" t="n">
-        <v>429.8604065072637</v>
+        <v>429.860406507263</v>
       </c>
       <c r="Y46" t="n">
-        <v>332.2681201766154</v>
+        <v>332.2681201766146</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>197.8585175523677</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>198.8977434604743</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>199.8197557315104</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>123.9391158470206</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>126.9443059417775</v>
@@ -8544,13 +8544,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,16 +8614,16 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L10" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
         <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
-        <v>115.2049082581395</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>123.9563408722598</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>180.1691814511935</v>
+        <v>537.4943209696062</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>56.6764597135053</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236977</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>421.389036342514</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>162.4406776795736</v>
       </c>
       <c r="N15" t="n">
-        <v>180.1691814511935</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>421.389036342514</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229299</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>180.1691814511935</v>
+        <v>180.169181451193</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9413,10 +9413,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415686</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229299</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>77.23994317483307</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>162.4406776795736</v>
       </c>
       <c r="N21" t="n">
-        <v>461.0923084362078</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.85574983928804</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,16 +9714,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>77.23994317483304</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>125.7949464667689</v>
       </c>
       <c r="M24" t="n">
-        <v>162.440677679574</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>162.4406776795738</v>
       </c>
       <c r="N27" t="n">
-        <v>180.1691814511937</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,7 +10197,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>162.4406776795741</v>
+        <v>162.4406776795738</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>77.23994317483304</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,7 +10434,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>162.4406776795739</v>
+        <v>443.3638046645879</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>78.85574983928799</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236977</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>162.4406776795739</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>180.169181451193</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.825599723696</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>180.1691814511935</v>
+        <v>180.169181451193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>67.87314822131411</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>180.1691814511935</v>
+        <v>456.1008413462312</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11300,7 +11300,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155853</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11376,7 +11376,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>67.87314822131411</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>374.4139056685092</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>344.9767697593599</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.85574983928801</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.0267895850483</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>221.1939948932124</v>
       </c>
       <c r="I11" t="n">
-        <v>48.3316124087375</v>
+        <v>48.33161240873751</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.65034103896976</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.8108641380758</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>86.6284813546705</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>230.5405458230177</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.06289694666782</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.0267895850483</v>
       </c>
       <c r="E14" t="n">
-        <v>167.942335207506</v>
+        <v>238.6034427696858</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>221.1939948932124</v>
       </c>
       <c r="I14" t="n">
-        <v>48.33161240873748</v>
+        <v>48.33161240873747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.65034103896973</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>116.8108641380758</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.2266919701797</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.703792577096409e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>192.4257927681215</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>201.064486680909</v>
+        <v>201.0644866809089</v>
       </c>
       <c r="I41" t="n">
-        <v>28.20210419643404</v>
+        <v>28.20210419643399</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.52083282666628</v>
+        <v>50.52083282666624</v>
       </c>
       <c r="T41" t="n">
-        <v>96.6813559257721</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>95.74443684235044</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>157.7791423603607</v>
+        <v>242.9466255947876</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>201.0644866809089</v>
       </c>
       <c r="I44" t="n">
-        <v>28.20210419643408</v>
+        <v>28.20210419643399</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.52083282666632</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>235.7111370886712</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781135.1665460083</v>
+        <v>781135.1665460082</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836595.690899013</v>
+        <v>836595.6908990128</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836595.690899013</v>
+        <v>836595.6908990128</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836595.6908990128</v>
+        <v>836595.690899013</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836595.690899013</v>
+        <v>836595.6908990128</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802766.3360709494</v>
+        <v>802766.3360709497</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>650995.1367812088</v>
       </c>
       <c r="C2" t="n">
-        <v>650995.1367812087</v>
+        <v>650995.1367812088</v>
       </c>
       <c r="D2" t="n">
-        <v>652480.4514200545</v>
+        <v>652480.4514200549</v>
       </c>
       <c r="E2" t="n">
         <v>600101.0673088836</v>
       </c>
       <c r="F2" t="n">
-        <v>600101.0673088836</v>
+        <v>600101.0673088834</v>
       </c>
       <c r="G2" t="n">
         <v>652480.4514200549</v>
       </c>
       <c r="H2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200548</v>
       </c>
       <c r="I2" t="n">
+        <v>652480.4514200552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>652480.4514200542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>652480.451420055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>652480.4514200547</v>
+      </c>
+      <c r="M2" t="n">
         <v>652480.4514200551</v>
       </c>
-      <c r="J2" t="n">
-        <v>652480.4514200543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>652480.4514200543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>652480.4514200545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>652480.4514200545</v>
-      </c>
       <c r="N2" t="n">
-        <v>652480.4514200548</v>
+        <v>652480.4514200551</v>
       </c>
       <c r="O2" t="n">
-        <v>620530.5051935501</v>
+        <v>620530.5051935504</v>
       </c>
       <c r="P2" t="n">
-        <v>620530.5051935496</v>
+        <v>620530.50519355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3709.837527318327</v>
       </c>
       <c r="E3" t="n">
-        <v>381855.3192999474</v>
+        <v>381855.3192999475</v>
       </c>
       <c r="F3" t="n">
-        <v>1.45133006085761e-10</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>41475.67012845401</v>
+        <v>41475.67012845405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>93173.15757357646</v>
       </c>
       <c r="K3" t="n">
-        <v>2.967213325133198e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43947.57346056688</v>
+        <v>43947.57346056698</v>
       </c>
       <c r="M3" t="n">
         <v>156975.0225444993</v>
       </c>
       <c r="N3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>15607.41474493493</v>
+        <v>15607.41474493492</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>287947.8674398919</v>
       </c>
       <c r="H4" t="n">
-        <v>287947.8674398919</v>
+        <v>287947.8674398918</v>
       </c>
       <c r="I4" t="n">
         <v>287947.8674398919</v>
@@ -26442,7 +26442,7 @@
         <v>288991.5689545365</v>
       </c>
       <c r="K4" t="n">
-        <v>288991.5689545365</v>
+        <v>288991.5689545364</v>
       </c>
       <c r="L4" t="n">
         <v>288927.601293514</v>
@@ -26479,37 +26479,37 @@
         <v>52345.11413857964</v>
       </c>
       <c r="F5" t="n">
-        <v>52345.11413857967</v>
+        <v>52345.11413857964</v>
       </c>
       <c r="G5" t="n">
-        <v>56703.63677861592</v>
+        <v>56703.6367786159</v>
       </c>
       <c r="H5" t="n">
-        <v>56703.63677861592</v>
+        <v>56703.63677861589</v>
       </c>
       <c r="I5" t="n">
-        <v>56703.6367786159</v>
+        <v>56703.63677861589</v>
       </c>
       <c r="J5" t="n">
         <v>64473.71521339061</v>
       </c>
       <c r="K5" t="n">
-        <v>64473.71521339061</v>
+        <v>64473.7152133906</v>
       </c>
       <c r="L5" t="n">
-        <v>64007.34710675934</v>
+        <v>64007.34710675933</v>
       </c>
       <c r="M5" t="n">
-        <v>56703.63677861591</v>
+        <v>56703.63677861589</v>
       </c>
       <c r="N5" t="n">
         <v>56703.6367786159</v>
       </c>
       <c r="O5" t="n">
-        <v>54037.38176447977</v>
+        <v>54037.38176447978</v>
       </c>
       <c r="P5" t="n">
-        <v>54037.38176447977</v>
+        <v>54037.38176447978</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224834.6283880844</v>
+        <v>224830.2598156173</v>
       </c>
       <c r="C6" t="n">
-        <v>224834.6283880843</v>
+        <v>224830.2598156173</v>
       </c>
       <c r="D6" t="n">
-        <v>222494.6553001313</v>
+        <v>222494.6553001316</v>
       </c>
       <c r="E6" t="n">
-        <v>-87110.21647159828</v>
+        <v>-87264.27348369005</v>
       </c>
       <c r="F6" t="n">
-        <v>294745.1028283489</v>
+        <v>294591.0458162571</v>
       </c>
       <c r="G6" t="n">
         <v>266353.277073093</v>
       </c>
       <c r="H6" t="n">
-        <v>307828.947201547</v>
+        <v>307828.9472015471</v>
       </c>
       <c r="I6" t="n">
-        <v>307828.9472015474</v>
+        <v>307828.9472015475</v>
       </c>
       <c r="J6" t="n">
-        <v>205842.0096785508</v>
+        <v>205842.0096785507</v>
       </c>
       <c r="K6" t="n">
-        <v>299015.1672521273</v>
+        <v>299015.167252128</v>
       </c>
       <c r="L6" t="n">
-        <v>255597.9295592142</v>
+        <v>255597.9295592144</v>
       </c>
       <c r="M6" t="n">
-        <v>150853.9246570475</v>
+        <v>150853.9246570481</v>
       </c>
       <c r="N6" t="n">
-        <v>307828.9472015469</v>
+        <v>307828.9472015472</v>
       </c>
       <c r="O6" t="n">
-        <v>284258.0902319433</v>
+        <v>284164.1198018655</v>
       </c>
       <c r="P6" t="n">
-        <v>299865.5049768776</v>
+        <v>299771.5345468001</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>103.0689355400003</v>
       </c>
       <c r="K2" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="L2" t="n">
         <v>106.1588147051414</v>
       </c>
       <c r="M2" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="N2" t="n">
         <v>154.9135232005679</v>
@@ -26725,7 +26725,7 @@
         <v>123.1984437523038</v>
       </c>
       <c r="P2" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
     </row>
     <row r="3">
@@ -26750,16 +26750,16 @@
         <v>127.0347996905606</v>
       </c>
       <c r="G3" t="n">
-        <v>127.0347996905605</v>
+        <v>127.0347996905606</v>
       </c>
       <c r="H3" t="n">
-        <v>127.0347996905605</v>
+        <v>127.0347996905606</v>
       </c>
       <c r="I3" t="n">
-        <v>127.0347996905605</v>
+        <v>127.0347996905606</v>
       </c>
       <c r="J3" t="n">
-        <v>127.0347996905605</v>
+        <v>127.0347996905606</v>
       </c>
       <c r="K3" t="n">
         <v>127.0347996905606</v>
@@ -26799,28 +26799,28 @@
         <v>672.8758743982423</v>
       </c>
       <c r="F4" t="n">
-        <v>672.8758743982428</v>
+        <v>672.8758743982423</v>
       </c>
       <c r="G4" t="n">
-        <v>672.8758743982428</v>
+        <v>672.8758743982423</v>
       </c>
       <c r="H4" t="n">
-        <v>672.8758743982428</v>
+        <v>672.8758743982423</v>
       </c>
       <c r="I4" t="n">
-        <v>672.8758743982426</v>
+        <v>672.8758743982423</v>
       </c>
       <c r="J4" t="n">
-        <v>872.3594447076333</v>
+        <v>872.3594447076332</v>
       </c>
       <c r="K4" t="n">
-        <v>872.3594447076333</v>
+        <v>872.3594447076332</v>
       </c>
       <c r="L4" t="n">
-        <v>860.4164980272794</v>
+        <v>860.4164980272793</v>
       </c>
       <c r="M4" t="n">
-        <v>672.8758743982428</v>
+        <v>672.8758743982423</v>
       </c>
       <c r="N4" t="n">
         <v>672.8758743982423</v>
@@ -26917,10 +26917,10 @@
         <v>103.0689355400003</v>
       </c>
       <c r="F2" t="n">
-        <v>1.854508328208249e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>51.84458766056751</v>
+        <v>51.84458766056757</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.22434787943278</v>
+        <v>51.22434787943276</v>
       </c>
       <c r="K2" t="n">
-        <v>3.709016656416498e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.9344668257086</v>
+        <v>54.93446682570872</v>
       </c>
       <c r="M2" t="n">
-        <v>48.75470849542633</v>
+        <v>48.75470849542641</v>
       </c>
       <c r="N2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>19.50926843116866</v>
+        <v>19.50926843116865</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>660.9329277178884</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4835703093908</v>
+        <v>199.4835703093909</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>473.3923040888518</v>
+        <v>473.3923040888515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>103.0689355400003</v>
       </c>
       <c r="K2" t="n">
-        <v>1.854508328208249e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.84458766056751</v>
+        <v>51.84458766056757</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.22434787943278</v>
+        <v>51.22434787943276</v>
       </c>
       <c r="P2" t="n">
-        <v>3.709016656416498e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>660.9329277178884</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>368.5860564719243</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8949160146003</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>398.0667321025775</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27907,10 +27907,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>240.393536242792</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>321.6665346826642</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.0870894338647</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145.8823016730944</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>149.5672885953991</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>133.6147831633436</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I9" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -27998,7 +27998,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.6531664065631</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.2004675614803</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>141.0218268044592</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28056,16 +28056,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>246.1850047168077</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>207.8718605392918</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.65210570518689</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S11" t="n">
         <v>103.0689355400003</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.65210570518689</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S14" t="n">
         <v>103.0689355400003</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.65210570518691</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S17" t="n">
         <v>154.9135232005679</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5342912420224</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="H19" t="n">
         <v>154.9135232005679</v>
@@ -28743,7 +28743,7 @@
         <v>135.8719792422602</v>
       </c>
       <c r="J19" t="n">
-        <v>43.26077050827246</v>
+        <v>43.26077050827244</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.96971317957322</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>137.726332108331</v>
+        <v>122.3168133293579</v>
       </c>
       <c r="S19" t="n">
         <v>154.9135232005679</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.65210570518691</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S20" t="n">
         <v>154.9135232005679</v>
@@ -28962,7 +28962,7 @@
         <v>154.9135232005679</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>136.1316554615424</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28974,13 +28974,13 @@
         <v>154.9135232005679</v>
       </c>
       <c r="H22" t="n">
-        <v>120.5342912420224</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="I22" t="n">
         <v>135.8719792422602</v>
       </c>
       <c r="J22" t="n">
-        <v>43.26077050827246</v>
+        <v>43.26077050827244</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.96971317957322</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>137.726332108331</v>
+        <v>137.7263321083309</v>
       </c>
       <c r="S22" t="n">
         <v>154.9135232005679</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.65210570518691</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S23" t="n">
         <v>154.9135232005679</v>
@@ -29211,13 +29211,13 @@
         <v>154.9135232005679</v>
       </c>
       <c r="H25" t="n">
-        <v>120.5342912420224</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="I25" t="n">
         <v>135.8719792422602</v>
       </c>
       <c r="J25" t="n">
-        <v>43.26077050827246</v>
+        <v>43.26077050827244</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.96971317957322</v>
+        <v>18.9697131795732</v>
       </c>
       <c r="R25" t="n">
-        <v>137.726332108331</v>
+        <v>103.3471001497853</v>
       </c>
       <c r="S25" t="n">
         <v>154.9135232005679</v>
@@ -29296,7 +29296,7 @@
         <v>103.0689355400003</v>
       </c>
       <c r="J26" t="n">
-        <v>103.0689355400003</v>
+        <v>22.97496038802495</v>
       </c>
       <c r="K26" t="n">
         <v>103.0689355400003</v>
@@ -29314,7 +29314,7 @@
         <v>103.0689355400003</v>
       </c>
       <c r="P26" t="n">
-        <v>22.97496038802541</v>
+        <v>103.0689355400003</v>
       </c>
       <c r="Q26" t="n">
         <v>103.0689355400003</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="C29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="D29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="E29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="F29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="G29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="H29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="I29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="J29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="K29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="L29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="M29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="N29" t="n">
-        <v>103.0689355400003</v>
+        <v>22.97496038802598</v>
       </c>
       <c r="O29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="P29" t="n">
-        <v>22.97496038802541</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="Q29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="R29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="S29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="T29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="U29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="V29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="W29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="X29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="C31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="D31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="E31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="F31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="G31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="I31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="J31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="K31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="L31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="M31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400018</v>
       </c>
       <c r="N31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="O31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="P31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="R31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="S31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="U31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="V31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="W31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0689355400003</v>
+        <v>103.0689355400002</v>
       </c>
     </row>
     <row r="32">
@@ -29770,25 +29770,25 @@
         <v>106.1588147051414</v>
       </c>
       <c r="J32" t="n">
-        <v>106.1588147051414</v>
+        <v>57.12549835083848</v>
       </c>
       <c r="K32" t="n">
         <v>106.1588147051414</v>
       </c>
       <c r="L32" t="n">
-        <v>106.1588147051414</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>106.1588147051414</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>106.1588147051414</v>
       </c>
       <c r="O32" t="n">
         <v>106.1588147051414</v>
       </c>
       <c r="P32" t="n">
-        <v>57.12549835083939</v>
+        <v>106.1588147051414</v>
       </c>
       <c r="Q32" t="n">
         <v>106.1588147051414</v>
@@ -29931,13 +29931,13 @@
         <v>106.1588147051414</v>
       </c>
       <c r="K34" t="n">
-        <v>30.99792173473454</v>
+        <v>106.1588147051414</v>
       </c>
       <c r="L34" t="n">
         <v>106.1588147051414</v>
       </c>
       <c r="M34" t="n">
-        <v>106.1588147051414</v>
+        <v>30.99792173473477</v>
       </c>
       <c r="N34" t="n">
         <v>106.1588147051414</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="C35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="D35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="E35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="F35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="G35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="H35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="I35" t="n">
         <v>151.4005479487378</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.65210570518689</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="T35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="U35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="V35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="W35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="X35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="Y35" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="C37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="H37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="I37" t="n">
         <v>135.8719792422602</v>
       </c>
       <c r="J37" t="n">
-        <v>43.26077050827246</v>
+        <v>43.26077050827244</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.96971317957321</v>
+        <v>18.9697131795732</v>
       </c>
       <c r="R37" t="n">
-        <v>103.3471001497867</v>
+        <v>137.7263321083309</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="T37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="U37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="V37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="W37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
       <c r="X37" t="n">
-        <v>154.9135232005677</v>
+        <v>120.5342912420222</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.9135232005677</v>
+        <v>154.9135232005679</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.65210570518689</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S38" t="n">
         <v>154.9135232005679</v>
@@ -30399,10 +30399,10 @@
         <v>154.9135232005679</v>
       </c>
       <c r="I40" t="n">
-        <v>101.492747283714</v>
+        <v>135.8719792422602</v>
       </c>
       <c r="J40" t="n">
-        <v>43.26077050827246</v>
+        <v>43.26077050827244</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.96971317957321</v>
+        <v>18.9697131795732</v>
       </c>
       <c r="R40" t="n">
-        <v>137.726332108331</v>
+        <v>137.7263321083309</v>
       </c>
       <c r="S40" t="n">
         <v>154.9135232005679</v>
       </c>
       <c r="T40" t="n">
-        <v>154.9135232005679</v>
+        <v>120.5342912420214</v>
       </c>
       <c r="U40" t="n">
         <v>154.9135232005679</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.65210570518689</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S41" t="n">
         <v>123.1984437523038</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.14620905891951</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="O43" t="n">
-        <v>123.1984437523038</v>
+        <v>107.3749396316489</v>
       </c>
       <c r="P43" t="n">
-        <v>123.1984437523038</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.1984437523038</v>
+        <v>18.9697131795732</v>
       </c>
       <c r="R43" t="n">
         <v>123.1984437523038</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="C44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="D44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="E44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="F44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="G44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="H44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="I44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.65210570518689</v>
+        <v>57.65210570518687</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="Y44" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="C46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="D46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="E46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="F46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="G46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="I46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="J46" t="n">
-        <v>43.26077050827246</v>
+        <v>43.26077050827244</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,40 +30888,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>83.08388230295154</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="O46" t="n">
-        <v>123.1984437523037</v>
+        <v>83.08388230294975</v>
       </c>
       <c r="P46" t="n">
-        <v>123.1984437523037</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="S46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="T46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="U46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="V46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="W46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="X46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.1984437523037</v>
+        <v>123.1984437523038</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H11" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I11" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J11" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K11" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L11" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M11" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N11" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O11" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P11" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R11" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S11" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T11" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H12" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I12" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J12" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K12" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L12" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M12" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N12" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O12" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P12" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R12" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S12" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T12" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H13" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I13" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J13" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K13" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L13" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M13" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N13" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O13" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P13" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R13" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S13" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H14" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I14" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J14" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K14" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L14" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M14" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N14" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O14" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P14" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R14" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S14" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T14" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H15" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I15" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J15" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K15" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L15" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M15" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N15" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O15" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P15" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R15" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S15" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T15" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H16" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I16" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J16" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K16" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L16" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M16" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N16" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O16" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P16" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R16" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S16" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5106926620726046</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H17" t="n">
-        <v>5.230131225451062</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I17" t="n">
-        <v>19.68847885455411</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J17" t="n">
-        <v>43.34440132758476</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K17" t="n">
-        <v>64.96202171311812</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L17" t="n">
-        <v>80.59113227002261</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M17" t="n">
-        <v>89.67316289915628</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N17" t="n">
-        <v>91.12416842527008</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O17" t="n">
-        <v>86.04596826678562</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P17" t="n">
-        <v>73.43824317186818</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.14906221139301</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R17" t="n">
-        <v>32.07979793391827</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S17" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T17" t="n">
-        <v>2.235557128222827</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04085541296580836</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2732446634853565</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H18" t="n">
-        <v>2.638968197345417</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I18" t="n">
-        <v>9.407765826140565</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J18" t="n">
-        <v>25.81562849183362</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K18" t="n">
-        <v>44.1230209453525</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L18" t="n">
-        <v>59.3288467800113</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M18" t="n">
-        <v>69.23396583135545</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N18" t="n">
-        <v>71.06638289481647</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O18" t="n">
-        <v>65.01185640390409</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P18" t="n">
-        <v>52.17774631063795</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.87944160560446</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R18" t="n">
-        <v>16.9651379662224</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S18" t="n">
-        <v>5.075399780089842</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T18" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01797662259772083</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2290791469829779</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H19" t="n">
-        <v>2.036721870448659</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I19" t="n">
-        <v>6.889034711088101</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J19" t="n">
-        <v>16.19589569169653</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K19" t="n">
-        <v>26.61483180402233</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L19" t="n">
-        <v>34.05782154326928</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M19" t="n">
-        <v>35.9091975584317</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N19" t="n">
-        <v>35.05535710149518</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O19" t="n">
-        <v>32.37929615719401</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P19" t="n">
-        <v>27.70608155874124</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.18225475327463</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R19" t="n">
-        <v>10.30023146343462</v>
+        <v>10.30023146343463</v>
       </c>
       <c r="S19" t="n">
-        <v>3.992224770603349</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9787927189272689</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5106926620726046</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H20" t="n">
-        <v>5.230131225451062</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I20" t="n">
-        <v>19.68847885455411</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J20" t="n">
-        <v>43.34440132758476</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K20" t="n">
-        <v>64.96202171311812</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L20" t="n">
-        <v>80.59113227002261</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M20" t="n">
-        <v>89.67316289915628</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N20" t="n">
-        <v>91.12416842527008</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O20" t="n">
-        <v>86.04596826678562</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P20" t="n">
-        <v>73.43824317186818</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.14906221139301</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R20" t="n">
-        <v>32.07979793391827</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S20" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T20" t="n">
-        <v>2.235557128222827</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04085541296580836</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2732446634853565</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H21" t="n">
-        <v>2.638968197345417</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I21" t="n">
-        <v>9.407765826140565</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J21" t="n">
-        <v>25.81562849183362</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K21" t="n">
-        <v>44.1230209453525</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L21" t="n">
-        <v>59.3288467800113</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M21" t="n">
-        <v>69.23396583135545</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N21" t="n">
-        <v>71.06638289481647</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O21" t="n">
-        <v>65.01185640390409</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P21" t="n">
-        <v>52.17774631063795</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.87944160560446</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R21" t="n">
-        <v>16.9651379662224</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S21" t="n">
-        <v>5.075399780089842</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T21" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01797662259772083</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2290791469829779</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H22" t="n">
-        <v>2.036721870448659</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I22" t="n">
-        <v>6.889034711088101</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J22" t="n">
-        <v>16.19589569169653</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K22" t="n">
-        <v>26.61483180402233</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L22" t="n">
-        <v>34.05782154326928</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M22" t="n">
-        <v>35.9091975584317</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N22" t="n">
-        <v>35.05535710149518</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O22" t="n">
-        <v>32.37929615719401</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P22" t="n">
-        <v>27.70608155874124</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.18225475327463</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R22" t="n">
-        <v>10.30023146343462</v>
+        <v>10.30023146343463</v>
       </c>
       <c r="S22" t="n">
-        <v>3.992224770603349</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9787927189272689</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5106926620726046</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H23" t="n">
-        <v>5.230131225451062</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I23" t="n">
-        <v>19.68847885455411</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J23" t="n">
-        <v>43.34440132758476</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K23" t="n">
-        <v>64.96202171311812</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L23" t="n">
-        <v>80.59113227002261</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M23" t="n">
-        <v>89.67316289915628</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N23" t="n">
-        <v>91.12416842527008</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O23" t="n">
-        <v>86.04596826678562</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P23" t="n">
-        <v>73.43824317186818</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.14906221139301</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R23" t="n">
-        <v>32.07979793391827</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S23" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T23" t="n">
-        <v>2.235557128222827</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04085541296580836</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2732446634853565</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H24" t="n">
-        <v>2.638968197345417</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I24" t="n">
-        <v>9.407765826140565</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J24" t="n">
-        <v>25.81562849183362</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K24" t="n">
-        <v>44.1230209453525</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L24" t="n">
-        <v>59.3288467800113</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M24" t="n">
-        <v>69.23396583135545</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N24" t="n">
-        <v>71.06638289481647</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O24" t="n">
-        <v>65.01185640390409</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P24" t="n">
-        <v>52.17774631063795</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.87944160560446</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R24" t="n">
-        <v>16.9651379662224</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S24" t="n">
-        <v>5.075399780089842</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T24" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01797662259772083</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2290791469829779</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H25" t="n">
-        <v>2.036721870448659</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I25" t="n">
-        <v>6.889034711088101</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J25" t="n">
-        <v>16.19589569169653</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K25" t="n">
-        <v>26.61483180402233</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L25" t="n">
-        <v>34.05782154326928</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M25" t="n">
-        <v>35.9091975584317</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N25" t="n">
-        <v>35.05535710149518</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O25" t="n">
-        <v>32.37929615719401</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P25" t="n">
-        <v>27.70608155874124</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.18225475327463</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R25" t="n">
-        <v>10.30023146343462</v>
+        <v>10.30023146343463</v>
       </c>
       <c r="S25" t="n">
-        <v>3.992224770603349</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9787927189272689</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5106926620726048</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H26" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I26" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J26" t="n">
-        <v>43.34440132758478</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K26" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L26" t="n">
-        <v>80.59113227002265</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M26" t="n">
-        <v>89.67316289915634</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N26" t="n">
-        <v>91.12416842527013</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O26" t="n">
-        <v>86.04596826678566</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P26" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.14906221139304</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R26" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S26" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T26" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04085541296580838</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2732446634853566</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H27" t="n">
-        <v>2.638968197345418</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I27" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J27" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K27" t="n">
-        <v>44.12302094535253</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L27" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M27" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N27" t="n">
-        <v>71.06638289481651</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O27" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P27" t="n">
-        <v>52.17774631063798</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R27" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S27" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T27" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H28" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I28" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J28" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K28" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L28" t="n">
-        <v>34.0578215432693</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M28" t="n">
-        <v>35.90919755843172</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N28" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O28" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P28" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R28" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S28" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9787927189272694</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H29" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I29" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J29" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K29" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L29" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M29" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N29" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O29" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P29" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R29" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S29" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T29" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H30" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I30" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J30" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K30" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L30" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M30" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N30" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O30" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P30" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R30" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S30" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T30" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H31" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I31" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J31" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K31" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L31" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M31" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N31" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O31" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P31" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R31" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S31" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H32" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I32" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J32" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K32" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L32" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M32" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N32" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O32" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P32" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R32" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S32" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T32" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H33" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I33" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J33" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K33" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L33" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M33" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N33" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O33" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P33" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R33" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S33" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T33" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H34" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I34" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J34" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K34" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L34" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M34" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N34" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O34" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P34" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R34" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S34" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H35" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I35" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J35" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K35" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L35" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M35" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N35" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O35" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P35" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R35" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S35" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T35" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H36" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I36" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J36" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K36" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L36" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M36" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N36" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O36" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P36" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R36" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S36" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T36" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H37" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I37" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J37" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K37" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L37" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M37" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N37" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O37" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P37" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R37" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S37" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H38" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I38" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J38" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K38" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L38" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M38" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N38" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O38" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P38" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R38" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S38" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T38" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H39" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I39" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J39" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K39" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L39" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M39" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N39" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O39" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P39" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R39" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S39" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T39" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H40" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I40" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J40" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K40" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L40" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M40" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N40" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O40" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P40" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R40" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S40" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H41" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I41" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J41" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K41" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L41" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M41" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N41" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O41" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P41" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R41" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S41" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T41" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H42" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I42" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J42" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K42" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L42" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M42" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N42" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O42" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P42" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R42" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S42" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T42" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H43" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I43" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J43" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K43" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L43" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M43" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N43" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O43" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P43" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R43" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S43" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5106926620726049</v>
+        <v>0.5106926620726052</v>
       </c>
       <c r="H44" t="n">
-        <v>5.230131225451066</v>
+        <v>5.230131225451069</v>
       </c>
       <c r="I44" t="n">
-        <v>19.68847885455412</v>
+        <v>19.68847885455413</v>
       </c>
       <c r="J44" t="n">
-        <v>43.34440132758479</v>
+        <v>43.34440132758482</v>
       </c>
       <c r="K44" t="n">
-        <v>64.96202171311816</v>
+        <v>64.9620217131182</v>
       </c>
       <c r="L44" t="n">
-        <v>80.59113227002267</v>
+        <v>80.59113227002271</v>
       </c>
       <c r="M44" t="n">
-        <v>89.67316289915635</v>
+        <v>89.67316289915641</v>
       </c>
       <c r="N44" t="n">
-        <v>91.12416842527014</v>
+        <v>91.1241684252702</v>
       </c>
       <c r="O44" t="n">
-        <v>86.04596826678568</v>
+        <v>86.04596826678574</v>
       </c>
       <c r="P44" t="n">
-        <v>73.43824317186822</v>
+        <v>73.43824317186828</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.14906221139305</v>
+        <v>55.14906221139309</v>
       </c>
       <c r="R44" t="n">
-        <v>32.07979793391829</v>
+        <v>32.07979793391831</v>
       </c>
       <c r="S44" t="n">
-        <v>11.63740903697949</v>
+        <v>11.6374090369795</v>
       </c>
       <c r="T44" t="n">
-        <v>2.235557128222829</v>
+        <v>2.235557128222831</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04085541296580839</v>
+        <v>0.04085541296580841</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2732446634853567</v>
+        <v>0.2732446634853569</v>
       </c>
       <c r="H45" t="n">
-        <v>2.638968197345419</v>
+        <v>2.638968197345421</v>
       </c>
       <c r="I45" t="n">
-        <v>9.407765826140571</v>
+        <v>9.407765826140578</v>
       </c>
       <c r="J45" t="n">
-        <v>25.81562849183364</v>
+        <v>25.81562849183365</v>
       </c>
       <c r="K45" t="n">
-        <v>44.12302094535254</v>
+        <v>44.12302094535256</v>
       </c>
       <c r="L45" t="n">
-        <v>59.32884678001133</v>
+        <v>59.32884678001138</v>
       </c>
       <c r="M45" t="n">
-        <v>69.23396583135549</v>
+        <v>69.23396583135555</v>
       </c>
       <c r="N45" t="n">
-        <v>71.06638289481653</v>
+        <v>71.06638289481657</v>
       </c>
       <c r="O45" t="n">
-        <v>65.01185640390413</v>
+        <v>65.01185640390418</v>
       </c>
       <c r="P45" t="n">
-        <v>52.17774631063799</v>
+        <v>52.17774631063802</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.87944160560448</v>
+        <v>34.87944160560451</v>
       </c>
       <c r="R45" t="n">
-        <v>16.96513796622241</v>
+        <v>16.96513796622243</v>
       </c>
       <c r="S45" t="n">
-        <v>5.075399780089845</v>
+        <v>5.075399780089849</v>
       </c>
       <c r="T45" t="n">
-        <v>1.101367744487029</v>
+        <v>1.10136774448703</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01797662259772084</v>
+        <v>0.01797662259772085</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.229079146982978</v>
+        <v>0.2290791469829782</v>
       </c>
       <c r="H46" t="n">
-        <v>2.036721870448661</v>
+        <v>2.036721870448662</v>
       </c>
       <c r="I46" t="n">
-        <v>6.889034711088105</v>
+        <v>6.88903471108811</v>
       </c>
       <c r="J46" t="n">
-        <v>16.19589569169655</v>
+        <v>16.19589569169656</v>
       </c>
       <c r="K46" t="n">
-        <v>26.61483180402235</v>
+        <v>26.61483180402237</v>
       </c>
       <c r="L46" t="n">
-        <v>34.05782154326931</v>
+        <v>34.05782154326933</v>
       </c>
       <c r="M46" t="n">
-        <v>35.90919755843173</v>
+        <v>35.90919755843175</v>
       </c>
       <c r="N46" t="n">
-        <v>35.0553571014952</v>
+        <v>35.05535710149523</v>
       </c>
       <c r="O46" t="n">
-        <v>32.37929615719403</v>
+        <v>32.37929615719406</v>
       </c>
       <c r="P46" t="n">
-        <v>27.70608155874126</v>
+        <v>27.70608155874128</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.18225475327464</v>
+        <v>19.18225475327466</v>
       </c>
       <c r="R46" t="n">
         <v>10.30023146343463</v>
       </c>
       <c r="S46" t="n">
-        <v>3.992224770603352</v>
+        <v>3.992224770603355</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9787927189272695</v>
+        <v>0.9787927189272702</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01249522619907154</v>
+        <v>0.01249522619907155</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N8" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>11.46040338013756</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="O10" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>116.0702036233481</v>
       </c>
       <c r="K11" t="n">
-        <v>307.5280540815856</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L11" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M11" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N11" t="n">
         <v>473.2770559886194</v>
       </c>
       <c r="O11" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P11" t="n">
         <v>303.8997547436392</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K12" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L12" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M12" t="n">
-        <v>559.1666461447155</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N12" t="n">
-        <v>144.5204232783017</v>
+        <v>501.8455627967144</v>
       </c>
       <c r="O12" t="n">
         <v>461.1734228525414</v>
       </c>
       <c r="P12" t="n">
-        <v>357.325139518413</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>194.2447242173158</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.0702036233499</v>
+        <v>116.0702036233481</v>
       </c>
       <c r="K14" t="n">
-        <v>307.5280540815856</v>
+        <v>307.5280540815855</v>
       </c>
       <c r="L14" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M14" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N14" t="n">
         <v>473.2770559886194</v>
       </c>
       <c r="O14" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P14" t="n">
         <v>303.8997547436392</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K15" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L15" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M15" t="n">
-        <v>559.1666461447155</v>
+        <v>116.1907409492892</v>
       </c>
       <c r="N15" t="n">
-        <v>144.5204232783017</v>
+        <v>587.4963284737278</v>
       </c>
       <c r="O15" t="n">
         <v>461.1734228525414</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.80816503172788</v>
+        <v>59.8081650317279</v>
       </c>
       <c r="K16" t="n">
         <v>163.627391328511</v>
@@ -35823,7 +35823,7 @@
         <v>194.3795461170626</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.09922236042713</v>
+        <v>84.09922236042715</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.070203623348</v>
+        <v>116.0702036233481</v>
       </c>
       <c r="K17" t="n">
         <v>307.5280540815855</v>
@@ -35890,16 +35890,16 @@
         <v>431.9904990224936</v>
       </c>
       <c r="M17" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N17" t="n">
-        <v>473.2770559886193</v>
+        <v>473.2770559886194</v>
       </c>
       <c r="O17" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P17" t="n">
-        <v>303.8997547436416</v>
+        <v>303.8997547436392</v>
       </c>
       <c r="Q17" t="n">
         <v>150.5351770462789</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.67840276769842</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K18" t="n">
-        <v>275.931659895038</v>
+        <v>275.9316598950381</v>
       </c>
       <c r="L18" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M18" t="n">
-        <v>559.1666461447155</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N18" t="n">
-        <v>144.5204232783017</v>
+        <v>144.5204232783013</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1734228525413</v>
+        <v>461.1734228525414</v>
       </c>
       <c r="P18" t="n">
-        <v>357.3251395184129</v>
+        <v>357.325139518413</v>
       </c>
       <c r="Q18" t="n">
         <v>194.2447242173158</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.55845578851063</v>
+        <v>60.55845578851067</v>
       </c>
       <c r="L19" t="n">
-        <v>135.6811340687839</v>
+        <v>135.681134068784</v>
       </c>
       <c r="M19" t="n">
-        <v>155.0945572832819</v>
+        <v>155.094557283282</v>
       </c>
       <c r="N19" t="n">
-        <v>154.6738841212935</v>
+        <v>154.6738841212936</v>
       </c>
       <c r="O19" t="n">
-        <v>131.8375249407189</v>
+        <v>131.837524940719</v>
       </c>
       <c r="P19" t="n">
-        <v>91.31061057706225</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.070203623348</v>
+        <v>116.0702036233481</v>
       </c>
       <c r="K20" t="n">
-        <v>307.5280540815855</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L20" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M20" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N20" t="n">
-        <v>473.2770559886193</v>
+        <v>473.2770559886194</v>
       </c>
       <c r="O20" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282339</v>
       </c>
       <c r="P20" t="n">
-        <v>303.8997547436416</v>
+        <v>303.8997547436392</v>
       </c>
       <c r="Q20" t="n">
         <v>150.5351770462789</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K21" t="n">
-        <v>275.931659895038</v>
+        <v>275.9316598950381</v>
       </c>
       <c r="L21" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M21" t="n">
-        <v>559.1666461447155</v>
+        <v>116.1907409492892</v>
       </c>
       <c r="N21" t="n">
-        <v>425.4435502633159</v>
+        <v>587.4963284737278</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1734228525413</v>
+        <v>461.1734228525414</v>
       </c>
       <c r="P21" t="n">
-        <v>357.3251395184129</v>
+        <v>357.325139518413</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>194.2447242173158</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.55845578851063</v>
+        <v>60.55845578851067</v>
       </c>
       <c r="L22" t="n">
-        <v>135.6811340687839</v>
+        <v>135.681134068784</v>
       </c>
       <c r="M22" t="n">
-        <v>155.0945572832819</v>
+        <v>155.094557283282</v>
       </c>
       <c r="N22" t="n">
-        <v>154.6738841212935</v>
+        <v>154.6738841212936</v>
       </c>
       <c r="O22" t="n">
-        <v>131.8375249407189</v>
+        <v>131.837524940719</v>
       </c>
       <c r="P22" t="n">
-        <v>91.31061057706225</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.070203623348</v>
+        <v>116.0702036233481</v>
       </c>
       <c r="K23" t="n">
-        <v>307.5280540815855</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L23" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M23" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N23" t="n">
-        <v>473.2770559886193</v>
+        <v>473.2770559886194</v>
       </c>
       <c r="O23" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P23" t="n">
-        <v>303.8997547436391</v>
+        <v>303.8997547436392</v>
       </c>
       <c r="Q23" t="n">
         <v>150.5351770462789</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>86.67840276769842</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>275.931659895038</v>
+        <v>275.9316598950381</v>
       </c>
       <c r="L24" t="n">
-        <v>428.8458621033604</v>
+        <v>72.54835967563248</v>
       </c>
       <c r="M24" t="n">
-        <v>116.1907409492896</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N24" t="n">
-        <v>587.4963284737277</v>
+        <v>587.4963284737278</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1734228525413</v>
+        <v>461.1734228525414</v>
       </c>
       <c r="P24" t="n">
-        <v>357.3251395184129</v>
+        <v>357.325139518413</v>
       </c>
       <c r="Q24" t="n">
         <v>194.2447242173158</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.55845578851063</v>
+        <v>60.55845578851067</v>
       </c>
       <c r="L25" t="n">
-        <v>135.6811340687839</v>
+        <v>135.681134068784</v>
       </c>
       <c r="M25" t="n">
-        <v>155.0945572832819</v>
+        <v>155.094557283282</v>
       </c>
       <c r="N25" t="n">
-        <v>154.6738841212935</v>
+        <v>154.6738841212936</v>
       </c>
       <c r="O25" t="n">
-        <v>131.8375249407189</v>
+        <v>131.837524940719</v>
       </c>
       <c r="P25" t="n">
-        <v>91.31061057706225</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.1391391633484</v>
+        <v>139.0451640113731</v>
       </c>
       <c r="K26" t="n">
         <v>410.5969896215859</v>
@@ -36601,22 +36601,22 @@
         <v>535.0594345624939</v>
       </c>
       <c r="M26" t="n">
-        <v>589.9533774826798</v>
+        <v>589.9533774826799</v>
       </c>
       <c r="N26" t="n">
         <v>576.3459915286197</v>
       </c>
       <c r="O26" t="n">
-        <v>497.2003426682344</v>
+        <v>497.2003426682345</v>
       </c>
       <c r="P26" t="n">
-        <v>326.8747151316646</v>
+        <v>406.9686902836395</v>
       </c>
       <c r="Q26" t="n">
-        <v>253.6041125862792</v>
+        <v>253.6041125862793</v>
       </c>
       <c r="R26" t="n">
-        <v>45.41682983481342</v>
+        <v>45.41682983481343</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K27" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L27" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M27" t="n">
-        <v>559.1666461447155</v>
+        <v>116.1907409492894</v>
       </c>
       <c r="N27" t="n">
-        <v>144.5204232783019</v>
+        <v>587.4963284737278</v>
       </c>
       <c r="O27" t="n">
         <v>461.1734228525414</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.1391391633484</v>
+        <v>219.1391391633483</v>
       </c>
       <c r="K29" t="n">
         <v>410.5969896215859</v>
       </c>
       <c r="L29" t="n">
-        <v>535.0594345624939</v>
+        <v>535.0594345624938</v>
       </c>
       <c r="M29" t="n">
         <v>589.9533774826798</v>
       </c>
       <c r="N29" t="n">
-        <v>576.3459915286197</v>
+        <v>496.2520163766454</v>
       </c>
       <c r="O29" t="n">
         <v>497.2003426682344</v>
       </c>
       <c r="P29" t="n">
-        <v>326.8747151316646</v>
+        <v>406.9686902836394</v>
       </c>
       <c r="Q29" t="n">
-        <v>253.6041125862792</v>
+        <v>253.6041125862791</v>
       </c>
       <c r="R29" t="n">
-        <v>45.41682983481343</v>
+        <v>45.41682983481336</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K30" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L30" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M30" t="n">
-        <v>116.1907409492897</v>
+        <v>116.1907409492894</v>
       </c>
       <c r="N30" t="n">
         <v>587.4963284737278</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.80816503172787</v>
+        <v>59.80816503172778</v>
       </c>
       <c r="K31" t="n">
-        <v>163.627391328511</v>
+        <v>163.6273913285109</v>
       </c>
       <c r="L31" t="n">
-        <v>238.7500696087843</v>
+        <v>238.7500696087842</v>
       </c>
       <c r="M31" t="n">
-        <v>258.1634928232823</v>
+        <v>258.1634928232838</v>
       </c>
       <c r="N31" t="n">
-        <v>257.7428196612939</v>
+        <v>257.7428196612938</v>
       </c>
       <c r="O31" t="n">
-        <v>234.9064604807193</v>
+        <v>234.9064604807192</v>
       </c>
       <c r="P31" t="n">
-        <v>194.3795461170626</v>
+        <v>194.3795461170625</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.09922236042712</v>
+        <v>84.09922236042704</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>222.2290183284895</v>
+        <v>173.1957019741866</v>
       </c>
       <c r="K32" t="n">
         <v>413.686868786727</v>
       </c>
       <c r="L32" t="n">
-        <v>538.149313727635</v>
+        <v>431.9904990224936</v>
       </c>
       <c r="M32" t="n">
         <v>593.043256647821</v>
       </c>
       <c r="N32" t="n">
-        <v>473.2770559886194</v>
+        <v>579.4358706937608</v>
       </c>
       <c r="O32" t="n">
         <v>500.2902218333755</v>
       </c>
       <c r="P32" t="n">
-        <v>361.0252530944786</v>
+        <v>410.0585694487806</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.6939917514204</v>
+        <v>256.6939917514203</v>
       </c>
       <c r="R32" t="n">
-        <v>48.50670899995452</v>
+        <v>48.50670899995451</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.67840276769843</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L33" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M33" t="n">
-        <v>116.1907409492894</v>
+        <v>397.1138679343035</v>
       </c>
       <c r="N33" t="n">
         <v>587.4963284737278</v>
@@ -37166,7 +37166,7 @@
         <v>357.325139518413</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.2447242173158</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89804419686895</v>
+        <v>62.89804419686894</v>
       </c>
       <c r="K34" t="n">
-        <v>91.55637752324519</v>
+        <v>166.7172704936521</v>
       </c>
       <c r="L34" t="n">
         <v>241.8399487739254</v>
       </c>
       <c r="M34" t="n">
-        <v>261.2533719884234</v>
+        <v>186.0924790180167</v>
       </c>
       <c r="N34" t="n">
         <v>260.832698826435</v>
@@ -37245,7 +37245,7 @@
         <v>197.4694252822037</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.1891015255682</v>
+        <v>87.18910152556819</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.0702036233499</v>
+        <v>116.0702036233481</v>
       </c>
       <c r="K35" t="n">
-        <v>307.5280540815856</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L35" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M35" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N35" t="n">
         <v>473.2770559886194</v>
       </c>
       <c r="O35" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P35" t="n">
         <v>303.8997547436392</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K36" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L36" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M36" t="n">
-        <v>116.1907409492894</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N36" t="n">
-        <v>587.4963284737278</v>
+        <v>144.5204232783013</v>
       </c>
       <c r="O36" t="n">
         <v>461.1734228525414</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>60.55845578851065</v>
+        <v>60.55845578851067</v>
       </c>
       <c r="L37" t="n">
         <v>135.681134068784</v>
@@ -37479,7 +37479,7 @@
         <v>131.837524940719</v>
       </c>
       <c r="P37" t="n">
-        <v>91.31061057706226</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>116.0702036233481</v>
       </c>
       <c r="K38" t="n">
-        <v>307.5280540815856</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L38" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M38" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N38" t="n">
         <v>473.2770559886194</v>
       </c>
       <c r="O38" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P38" t="n">
         <v>303.8997547436392</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K39" t="n">
         <v>275.9316598950381</v>
       </c>
       <c r="L39" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M39" t="n">
-        <v>559.1666461447155</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N39" t="n">
-        <v>144.5204232783017</v>
+        <v>144.5204232783013</v>
       </c>
       <c r="O39" t="n">
         <v>461.1734228525414</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>60.55845578851065</v>
+        <v>60.55845578851067</v>
       </c>
       <c r="L40" t="n">
         <v>135.681134068784</v>
@@ -37716,7 +37716,7 @@
         <v>131.837524940719</v>
       </c>
       <c r="P40" t="n">
-        <v>91.31061057706226</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>116.0702036233481</v>
       </c>
       <c r="K41" t="n">
-        <v>307.5280540815856</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L41" t="n">
         <v>431.9904990224936</v>
       </c>
       <c r="M41" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N41" t="n">
         <v>473.2770559886194</v>
       </c>
       <c r="O41" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P41" t="n">
         <v>303.8997547436392</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K42" t="n">
-        <v>275.9316598950381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M42" t="n">
-        <v>559.1666461447155</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N42" t="n">
-        <v>144.5204232783017</v>
+        <v>420.4520831733394</v>
       </c>
       <c r="O42" t="n">
         <v>461.1734228525414</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.93767324403133</v>
+        <v>79.93767324403139</v>
       </c>
       <c r="K43" t="n">
-        <v>60.55845578851065</v>
+        <v>60.55845578851067</v>
       </c>
       <c r="L43" t="n">
-        <v>138.8273431277035</v>
+        <v>135.681134068784</v>
       </c>
       <c r="M43" t="n">
-        <v>155.094557283282</v>
+        <v>278.2930010355858</v>
       </c>
       <c r="N43" t="n">
-        <v>154.6738841212936</v>
+        <v>277.8723278735974</v>
       </c>
       <c r="O43" t="n">
-        <v>255.0359686930227</v>
+        <v>239.2124645723679</v>
       </c>
       <c r="P43" t="n">
-        <v>214.5090543293661</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2287305727306</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>116.0702036233481</v>
       </c>
       <c r="K44" t="n">
-        <v>307.5280540815856</v>
+        <v>307.5280540815857</v>
       </c>
       <c r="L44" t="n">
-        <v>431.9904990224936</v>
+        <v>431.9904990224935</v>
       </c>
       <c r="M44" t="n">
-        <v>486.8844419426795</v>
+        <v>486.8844419426796</v>
       </c>
       <c r="N44" t="n">
         <v>473.2770559886194</v>
       </c>
       <c r="O44" t="n">
-        <v>394.1314071282341</v>
+        <v>394.1314071282342</v>
       </c>
       <c r="P44" t="n">
         <v>303.8997547436392</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.67840276769843</v>
+        <v>86.67840276769844</v>
       </c>
       <c r="K45" t="n">
-        <v>275.9316598950381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>428.8458621033604</v>
+        <v>428.8458621033605</v>
       </c>
       <c r="M45" t="n">
-        <v>559.1666461447155</v>
+        <v>559.1666461447156</v>
       </c>
       <c r="N45" t="n">
-        <v>338.7651474956174</v>
+        <v>587.4963284737278</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1734228525414</v>
+        <v>294.129177552153</v>
       </c>
       <c r="P45" t="n">
         <v>357.325139518413</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>194.2447242173158</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.55845578851065</v>
+        <v>183.7568995408145</v>
       </c>
       <c r="L46" t="n">
         <v>135.681134068784</v>
@@ -38184,16 +38184,16 @@
         <v>155.094557283282</v>
       </c>
       <c r="N46" t="n">
-        <v>237.7577664242451</v>
+        <v>277.8723278735974</v>
       </c>
       <c r="O46" t="n">
-        <v>255.0359686930227</v>
+        <v>214.9214072436687</v>
       </c>
       <c r="P46" t="n">
-        <v>214.509054329366</v>
+        <v>91.31061057706228</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.2287305727305</v>
+        <v>104.2287305727306</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
